--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$V$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$W$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -597,16 +597,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23561,17 +23564,17 @@
   </sheetPr>
   <dimension ref="A1:CR132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A71" colorId="22" zoomScale="55" zoomScaleNormal="62" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="62" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A71" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="11" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="11" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -23586,7 +23589,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23596,7 +23599,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23629,6 +23632,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -23696,6 +23700,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23768,7 +23775,9 @@
       <c r="V12" s="8">
         <v>487130.20311857841</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>528667.79042013013</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23910,7 +23919,9 @@
       <c r="V13" s="8">
         <v>590887.03296721494</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>605941.60283798375</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24150,7 +24161,9 @@
       <c r="V15" s="12">
         <v>1078017.2360857935</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="12">
+        <v>1134609.3932581139</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24248,6 +24261,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -24462,7 +24476,7 @@
     </row>
     <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.25">
@@ -24472,7 +24486,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
@@ -24505,6 +24519,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -24572,6 +24587,9 @@
       </c>
       <c r="V29" s="15">
         <v>2020</v>
+      </c>
+      <c r="W29" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24644,7 +24662,9 @@
       <c r="V31" s="8">
         <v>469235.95292726759</v>
       </c>
-      <c r="W31" s="9"/>
+      <c r="W31" s="8">
+        <v>485358.29421858746</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -24786,7 +24806,9 @@
       <c r="V32" s="8">
         <v>558623.77733454341</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="8">
+        <v>564672.9087532477</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -25026,7 +25048,9 @@
       <c r="V34" s="12">
         <v>1027859.7302618111</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="12">
+        <v>1050031.2029718352</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25124,6 +25148,7 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
     </row>
     <row r="36" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -25338,7 +25363,7 @@
     </row>
     <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.25">
@@ -25348,7 +25373,7 @@
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
@@ -25380,6 +25405,8 @@
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -25443,8 +25470,12 @@
         <v>14</v>
       </c>
       <c r="U48" s="17" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" s="17"/>
     </row>
     <row r="49" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -25513,7 +25544,10 @@
       <c r="U50" s="18">
         <v>-29.606563794234901</v>
       </c>
-      <c r="W50" s="9"/>
+      <c r="V50" s="18">
+        <v>8.5269989492810225</v>
+      </c>
+      <c r="W50" s="18"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
@@ -25647,7 +25681,10 @@
       <c r="U51" s="18">
         <v>4.8354617675608864</v>
       </c>
-      <c r="W51" s="9"/>
+      <c r="V51" s="18">
+        <v>2.5477915457325935</v>
+      </c>
+      <c r="W51" s="18"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
@@ -25739,6 +25776,7 @@
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
@@ -25873,7 +25911,10 @@
       <c r="U53" s="18">
         <v>-14.146241663142945</v>
       </c>
-      <c r="W53" s="9"/>
+      <c r="V53" s="18">
+        <v>5.2496523504394617</v>
+      </c>
+      <c r="W53" s="18"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -25965,6 +26006,8 @@
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
     </row>
     <row r="55" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
@@ -25993,6 +26036,7 @@
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
@@ -26085,6 +26129,7 @@
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
@@ -26167,7 +26212,7 @@
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.25">
@@ -26177,7 +26222,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.25">
@@ -26209,6 +26254,8 @@
       <c r="S66" s="16"/>
       <c r="T66" s="16"/>
       <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
     </row>
     <row r="67" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -26272,8 +26319,12 @@
         <v>14</v>
       </c>
       <c r="U67" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" s="6"/>
     </row>
     <row r="68" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -26342,7 +26393,10 @@
       <c r="U69" s="18">
         <v>-31.931896440185724</v>
       </c>
-      <c r="W69" s="9"/>
+      <c r="V69" s="18">
+        <v>3.43587084296135</v>
+      </c>
+      <c r="W69" s="18"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -26476,7 +26530,10 @@
       <c r="U70" s="18">
         <v>1.7331332170467988</v>
       </c>
-      <c r="W70" s="9"/>
+      <c r="V70" s="18">
+        <v>1.082863219243464</v>
+      </c>
+      <c r="W70" s="18"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -26568,6 +26625,7 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -26702,7 +26760,10 @@
       <c r="U72" s="18">
         <v>-17.00564719555048</v>
       </c>
-      <c r="W72" s="9"/>
+      <c r="V72" s="18">
+        <v>2.1570523737102434</v>
+      </c>
+      <c r="W72" s="18"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -26794,6 +26855,8 @@
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
       <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
     </row>
     <row r="74" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
@@ -26998,7 +27061,7 @@
     </row>
     <row r="78" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:96" x14ac:dyDescent="0.25">
@@ -27008,7 +27071,7 @@
     </row>
     <row r="81" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.25">
@@ -27041,6 +27104,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -27108,6 +27172,9 @@
       </c>
       <c r="V85" s="15">
         <v>2020</v>
+      </c>
+      <c r="W85" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="86" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27180,7 +27247,9 @@
       <c r="V87" s="18">
         <v>103.81348660086249</v>
       </c>
-      <c r="W87" s="9"/>
+      <c r="W87" s="18">
+        <v>108.92320100788011</v>
+      </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -27322,7 +27391,9 @@
       <c r="V88" s="18">
         <v>105.77548914702749</v>
       </c>
-      <c r="W88" s="9"/>
+      <c r="W88" s="18">
+        <v>107.30842465523165</v>
+      </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -27562,7 +27633,9 @@
       <c r="V90" s="18">
         <v>104.8798006524885</v>
       </c>
-      <c r="W90" s="9"/>
+      <c r="W90" s="18">
+        <v>108.05482637534031</v>
+      </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -27660,6 +27733,7 @@
       <c r="T91" s="13"/>
       <c r="U91" s="13"/>
       <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
     </row>
     <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
@@ -27678,7 +27752,7 @@
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.25">
@@ -27688,7 +27762,7 @@
     </row>
     <row r="100" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.25">
@@ -27721,6 +27795,7 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -27788,6 +27863,9 @@
       </c>
       <c r="V104" s="15">
         <v>2020</v>
+      </c>
+      <c r="W104" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="105" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27860,7 +27938,9 @@
       <c r="V106" s="18">
         <v>45.187608028171681</v>
       </c>
-      <c r="W106" s="9"/>
+      <c r="W106" s="18">
+        <v>46.594695369304311</v>
+      </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -28002,7 +28082,9 @@
       <c r="V107" s="18">
         <v>54.812391971828312</v>
       </c>
-      <c r="W107" s="9"/>
+      <c r="W107" s="18">
+        <v>53.405304630695696</v>
+      </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -28242,7 +28324,9 @@
       <c r="V109" s="18">
         <v>100</v>
       </c>
-      <c r="W109" s="9"/>
+      <c r="W109" s="18">
+        <v>100</v>
+      </c>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -28340,6 +28424,7 @@
       <c r="T110" s="13"/>
       <c r="U110" s="13"/>
       <c r="V110" s="13"/>
+      <c r="W110" s="13"/>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
@@ -28554,7 +28639,7 @@
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:96" x14ac:dyDescent="0.25">
@@ -28564,7 +28649,7 @@
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:96" x14ac:dyDescent="0.25">
@@ -28597,6 +28682,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
       <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -28664,6 +28750,9 @@
       </c>
       <c r="V123" s="15">
         <v>2020</v>
+      </c>
+      <c r="W123" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="124" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28736,7 +28825,9 @@
       <c r="V125" s="18">
         <v>45.651749855765459</v>
       </c>
-      <c r="W125" s="9"/>
+      <c r="W125" s="18">
+        <v>46.223225828423899</v>
+      </c>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
@@ -28878,7 +28969,9 @@
       <c r="V126" s="18">
         <v>54.348250144234534</v>
       </c>
-      <c r="W126" s="9"/>
+      <c r="W126" s="18">
+        <v>53.776774171576101</v>
+      </c>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
@@ -29118,7 +29211,9 @@
       <c r="V128" s="18">
         <v>100</v>
       </c>
-      <c r="W128" s="9"/>
+      <c r="W128" s="18">
+        <v>100</v>
+      </c>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
@@ -29216,6 +29311,7 @@
       <c r="T129" s="13"/>
       <c r="U129" s="13"/>
       <c r="V129" s="13"/>
+      <c r="W129" s="13"/>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
@@ -29424,9 +29520,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="21" man="1"/>
-    <brk id="76" max="21" man="1"/>
-    <brk id="94" max="21" man="1"/>
+    <brk id="38" max="22" man="1"/>
+    <brk id="76" max="22" man="1"/>
+    <brk id="94" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BFF374-F527-4B39-8728-6BC588DC708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -603,19 +604,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -734,9 +735,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23558,7 +23559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23567,7 +23568,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="62" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23589,7 +23590,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23599,7 +23600,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23773,10 +23774,10 @@
         <v>692010.83137163753</v>
       </c>
       <c r="V12" s="8">
-        <v>487130.20311857841</v>
+        <v>490567.10803350247</v>
       </c>
       <c r="W12" s="8">
-        <v>528667.79042013013</v>
+        <v>532354.00619522529</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -23917,10 +23918,10 @@
         <v>563632.78513268533</v>
       </c>
       <c r="V13" s="8">
-        <v>590887.03296721494</v>
+        <v>591045.08496757795</v>
       </c>
       <c r="W13" s="8">
-        <v>605941.60283798375</v>
+        <v>606547.0844627897</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -24159,10 +24160,10 @@
         <v>1255643.6165043227</v>
       </c>
       <c r="V15" s="12">
-        <v>1078017.2360857935</v>
+        <v>1081612.1930010803</v>
       </c>
       <c r="W15" s="12">
-        <v>1134609.3932581139</v>
+        <v>1138901.0906580151</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -24476,7 +24477,7 @@
     </row>
     <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.25">
@@ -24486,7 +24487,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
@@ -24660,10 +24661,10 @@
         <v>689362.45963563595</v>
       </c>
       <c r="V31" s="8">
-        <v>469235.95292726759</v>
+        <v>472502.4944869905</v>
       </c>
       <c r="W31" s="8">
-        <v>485358.29421858746</v>
+        <v>488707.67883075483</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -24804,10 +24805,10 @@
         <v>549107.02115379088</v>
       </c>
       <c r="V32" s="8">
-        <v>558623.77733454341</v>
+        <v>558772.2709192296</v>
       </c>
       <c r="W32" s="8">
-        <v>564672.9087532477</v>
+        <v>565236.79075312335</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -25046,10 +25047,10 @@
         <v>1238469.4807894267</v>
       </c>
       <c r="V34" s="12">
-        <v>1027859.7302618111</v>
+        <v>1031274.7654062201</v>
       </c>
       <c r="W34" s="12">
-        <v>1050031.2029718352</v>
+        <v>1053944.4695838783</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -25363,7 +25364,7 @@
     </row>
     <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.25">
@@ -25373,7 +25374,7 @@
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
@@ -25542,10 +25543,10 @@
         <v>6.2331783115774755</v>
       </c>
       <c r="U50" s="18">
-        <v>-29.606563794234901</v>
+        <v>-29.109909008050153</v>
       </c>
       <c r="V50" s="18">
-        <v>8.5269989492810225</v>
+        <v>8.5180798870170236</v>
       </c>
       <c r="W50" s="18"/>
       <c r="X50" s="9"/>
@@ -25679,10 +25680,10 @@
         <v>4.7128409566881118</v>
       </c>
       <c r="U51" s="18">
-        <v>4.8354617675608864</v>
+        <v>4.8635034295315904</v>
       </c>
       <c r="V51" s="18">
-        <v>2.5477915457325935</v>
+        <v>2.62281167536689</v>
       </c>
       <c r="W51" s="18"/>
       <c r="X51" s="9"/>
@@ -25909,10 +25910,10 @@
         <v>5.54530446958114</v>
       </c>
       <c r="U53" s="18">
-        <v>-14.146241663142945</v>
+        <v>-13.859937741549714</v>
       </c>
       <c r="V53" s="18">
-        <v>5.2496523504394617</v>
+        <v>5.2966209171495109</v>
       </c>
       <c r="W53" s="18"/>
       <c r="X53" s="9"/>
@@ -26212,7 +26213,7 @@
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.25">
@@ -26222,7 +26223,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.25">
@@ -26391,10 +26392,10 @@
         <v>5.826616832896093</v>
       </c>
       <c r="U69" s="18">
-        <v>-31.931896440185724</v>
+        <v>-31.458046796349663</v>
       </c>
       <c r="V69" s="18">
-        <v>3.43587084296135</v>
+        <v>3.4296505379000735</v>
       </c>
       <c r="W69" s="18"/>
       <c r="X69" s="9"/>
@@ -26528,10 +26529,10 @@
         <v>2.0142150899576876</v>
       </c>
       <c r="U70" s="18">
-        <v>1.7331332170467988</v>
+        <v>1.7601759571622182</v>
       </c>
       <c r="V70" s="18">
-        <v>1.082863219243464</v>
+        <v>1.1569149312400668</v>
       </c>
       <c r="W70" s="18"/>
       <c r="X70" s="9"/>
@@ -26758,10 +26759,10 @@
         <v>4.1017026711050733</v>
       </c>
       <c r="U72" s="18">
-        <v>-17.00564719555048</v>
+        <v>-16.729900784566482</v>
       </c>
       <c r="V72" s="18">
-        <v>2.1570523737102434</v>
+        <v>2.1982215543428651</v>
       </c>
       <c r="W72" s="18"/>
       <c r="X72" s="9"/>
@@ -27061,7 +27062,7 @@
     </row>
     <row r="78" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:96" x14ac:dyDescent="0.25">
@@ -27071,7 +27072,7 @@
     </row>
     <row r="81" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.25">
@@ -27245,10 +27246,10 @@
         <v>100.38417695930258</v>
       </c>
       <c r="V87" s="18">
-        <v>103.81348660086249</v>
+        <v>103.82317845033289</v>
       </c>
       <c r="W87" s="18">
-        <v>108.92320100788011</v>
+        <v>108.93096819532187</v>
       </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
@@ -27389,10 +27390,10 @@
         <v>102.64534296945844</v>
       </c>
       <c r="V88" s="18">
-        <v>105.77548914702749</v>
+        <v>105.77566492253754</v>
       </c>
       <c r="W88" s="18">
-        <v>107.30842465523165</v>
+        <v>107.3084934288556</v>
       </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
@@ -27631,10 +27632,10 @@
         <v>101.38672256210535</v>
       </c>
       <c r="V90" s="18">
-        <v>104.8798006524885</v>
+        <v>104.88108788107814</v>
       </c>
       <c r="W90" s="18">
-        <v>108.05482637534031</v>
+        <v>108.06082516925011</v>
       </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
@@ -27752,7 +27753,7 @@
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.25">
@@ -27762,7 +27763,7 @@
     </row>
     <row r="100" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.25">
@@ -27936,10 +27937,10 @@
         <v>55.112041528007495</v>
       </c>
       <c r="V106" s="18">
-        <v>45.187608028171681</v>
+        <v>45.355175469347955</v>
       </c>
       <c r="W106" s="18">
-        <v>46.594695369304311</v>
+        <v>46.742777802385874</v>
       </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
@@ -28080,10 +28081,10 @@
         <v>44.887958471992512</v>
       </c>
       <c r="V107" s="18">
-        <v>54.812391971828312</v>
+        <v>54.644824530652045</v>
       </c>
       <c r="W107" s="18">
-        <v>53.405304630695696</v>
+        <v>53.257222197614119</v>
       </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
@@ -28639,7 +28640,7 @@
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:96" x14ac:dyDescent="0.25">
@@ -28649,7 +28650,7 @@
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:96" x14ac:dyDescent="0.25">
@@ -28823,10 +28824,10 @@
         <v>55.662450333150048</v>
       </c>
       <c r="V125" s="18">
-        <v>45.651749855765459</v>
+        <v>45.817323407585889</v>
       </c>
       <c r="W125" s="18">
-        <v>46.223225828423899</v>
+        <v>46.369395441081252</v>
       </c>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
@@ -28967,10 +28968,10 @@
         <v>44.337549666849959</v>
       </c>
       <c r="V126" s="18">
-        <v>54.348250144234534</v>
+        <v>54.182676592414111</v>
       </c>
       <c r="W126" s="18">
-        <v>53.776774171576101</v>
+        <v>53.630604558918741</v>
       </c>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>

--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BFF374-F527-4B39-8728-6BC588DC708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5D10D-F2B5-42FC-9098-8EDF7F955EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="4530" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$W$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$X$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -604,13 +604,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -618,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -695,44 +698,43 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -753,7 +755,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15120,7 +15122,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -15234,7 +15236,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15943,7 +15945,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15966,7 +15968,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15995,7 +15997,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16058,7 +16060,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16087,7 +16089,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16118,7 +16120,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18512,7 +18514,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18600,7 +18602,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18621,7 +18623,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18638,7 +18640,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18695,7 +18697,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18736,7 +18738,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18749,7 +18751,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18762,7 +18764,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18809,7 +18811,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18838,7 +18840,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23255,7 +23257,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23565,50 +23567,50 @@
   </sheetPr>
   <dimension ref="A1:CR132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="62" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A2" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="11" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="11" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -23634,8 +23636,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -23705,11 +23708,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23779,7 +23785,9 @@
       <c r="W12" s="8">
         <v>532354.00619522529</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>620084.59095587651</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23853,7 +23861,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23923,7 +23931,9 @@
       <c r="W13" s="8">
         <v>606547.0844627897</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>628855.31113133102</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -23997,8 +24007,8 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -24095,77 +24105,79 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>267975.31381960481</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>283781.77086305519</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>299677.47740453132</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>321118.54692385893</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>345630.58107428753</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>377709.87194430432</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>407979.64360112371</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>438331.18401038175</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>486619.51535826054</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>494633.39500166109</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>540387.64441572898</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>596654.32925418881</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>671761.36943194829</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>760384.25995626638</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>831244.9393064992</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>929576.10225762031</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <v>995628.95321591292</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="11">
         <v>1076332.4655692342</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="11">
         <v>1189672.6460874509</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="11">
         <v>1255643.6165043227</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="11">
         <v>1081612.1930010803</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="11">
         <v>1138901.0906580151</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="11">
+        <v>1248939.9020872074</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24239,38 +24251,39 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+    <row r="16" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -24367,8 +24380,8 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -24465,37 +24478,37 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -24521,82 +24534,86 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>2000</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>2001</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>2002</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>2003</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>2004</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>2005</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>2006</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="14">
         <v>2007</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="14">
         <v>2008</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="14">
         <v>2009</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>2010</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="14">
         <v>2011</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="14">
         <v>2012</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="14">
         <v>2013</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="14">
         <v>2014</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="14">
         <v>2015</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="14">
         <v>2016</v>
       </c>
-      <c r="S29" s="15">
+      <c r="S29" s="14">
         <v>2017</v>
       </c>
-      <c r="T29" s="15">
+      <c r="T29" s="14">
         <v>2018</v>
       </c>
-      <c r="U29" s="15">
+      <c r="U29" s="14">
         <v>2019</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="14">
         <v>2020</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W29" s="14">
         <v>2021</v>
       </c>
+      <c r="X29" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -24666,7 +24683,9 @@
       <c r="W31" s="8">
         <v>488707.67883075483</v>
       </c>
-      <c r="X31" s="9"/>
+      <c r="X31" s="8">
+        <v>536442.8239645632</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -24740,7 +24759,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -24810,7 +24829,9 @@
       <c r="W32" s="8">
         <v>565236.79075312335</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="8">
+        <v>573442.29076372308</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -24884,8 +24905,8 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -24982,77 +25003,79 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>487873.89837652456</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>482152.22939482145</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>488545.5025339335</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>505749.62610310875</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>530337.31404477498</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>558681.52035488456</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>586053.44955123786</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>627477.94828257093</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>664607.04724522273</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="11">
         <v>655393.10185770737</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <v>701532.89768667391</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="11">
         <v>754008.4868221269</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <v>820210.37113443785</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="11">
         <v>897280.33371544513</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="11">
         <v>945984.25195444771</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="11">
         <v>1022316.1787011898</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="11">
         <v>1068415.4747318462</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="11">
         <v>1129083.2983109807</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="11">
         <v>1189672.6460874511</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="11">
         <v>1238469.4807894267</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34" s="11">
         <v>1031274.7654062201</v>
       </c>
-      <c r="W34" s="12">
+      <c r="W34" s="11">
         <v>1053944.4695838783</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="11">
+        <v>1109885.1147282864</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25126,38 +25149,39 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
+    <row r="35" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -25254,8 +25278,8 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -25352,204 +25376,210 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="17" t="s">
+      <c r="K48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="17" t="s">
+      <c r="M48" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="17" t="s">
+      <c r="N48" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="17" t="s">
+      <c r="O48" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="17" t="s">
+      <c r="P48" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="17" t="s">
+      <c r="Q48" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="17" t="s">
+      <c r="R48" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S48" s="17" t="s">
+      <c r="S48" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="T48" s="17" t="s">
+      <c r="T48" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U48" s="17" t="s">
+      <c r="U48" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="V48" s="17" t="s">
+      <c r="V48" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="17"/>
+      <c r="W48" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X48" s="16"/>
     </row>
-    <row r="49" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="17">
         <v>-6.001980703213448</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>1.0448678852776254</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="17">
         <v>12.225253264033313</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="17">
         <v>21.346478310789465</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="17">
         <v>23.734290538427686</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="17">
         <v>24.480957141551158</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="17">
         <v>22.978724465522802</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="17">
         <v>27.390630161447575</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="17">
         <v>-3.8622920993318388</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="17">
         <v>23.101705019221157</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="17">
         <v>22.671107098428038</v>
       </c>
-      <c r="M50" s="18">
+      <c r="M50" s="17">
         <v>24.048436195186042</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="17">
         <v>25.065378581377118</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="17">
         <v>16.431875771421971</v>
       </c>
-      <c r="P50" s="18">
+      <c r="P50" s="17">
         <v>16.327524278972462</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="Q50" s="17">
         <v>9.5575618189616307</v>
       </c>
-      <c r="R50" s="18">
+      <c r="R50" s="17">
         <v>12.236808646168697</v>
       </c>
-      <c r="S50" s="18">
+      <c r="S50" s="17">
         <v>14.577078768809088</v>
       </c>
-      <c r="T50" s="18">
+      <c r="T50" s="17">
         <v>6.2331783115774755</v>
       </c>
-      <c r="U50" s="18">
+      <c r="U50" s="17">
         <v>-29.109909008050153</v>
       </c>
-      <c r="V50" s="18">
+      <c r="V50" s="17">
         <v>8.5180798870170236</v>
       </c>
-      <c r="W50" s="18"/>
-      <c r="X50" s="9"/>
+      <c r="W50" s="17">
+        <v>16.479745383653338</v>
+      </c>
+      <c r="X50" s="17"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
@@ -25618,75 +25648,77 @@
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="17">
         <v>8.5322634509153943</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>6.474777596015997</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>6.2323587528628082</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="17">
         <v>4.9981162519729025</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="17">
         <v>6.0715706009106754</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="17">
         <v>3.7479589081985694</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="17">
         <v>2.609235705673683</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="17">
         <v>4.9162205874330596</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="17">
         <v>4.138919500425601</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="17">
         <v>3.4657558444956607</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="17">
         <v>4.3214883554954326</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M51" s="17">
         <v>5.8923714007431869</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="17">
         <v>5.0667054472929749</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O51" s="17">
         <v>3.5243266826188346</v>
       </c>
-      <c r="P51" s="18">
+      <c r="P51" s="17">
         <v>7.7078921511275666</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="Q51" s="17">
         <v>4.6793467309443599</v>
       </c>
-      <c r="R51" s="18">
+      <c r="R51" s="17">
         <v>3.8272386674451582</v>
       </c>
-      <c r="S51" s="18">
+      <c r="S51" s="17">
         <v>5.9993675961471808</v>
       </c>
-      <c r="T51" s="18">
+      <c r="T51" s="17">
         <v>4.7128409566881118</v>
       </c>
-      <c r="U51" s="18">
+      <c r="U51" s="17">
         <v>4.8635034295315904</v>
       </c>
-      <c r="V51" s="18">
+      <c r="V51" s="17">
         <v>2.62281167536689</v>
       </c>
-      <c r="W51" s="18"/>
-      <c r="X51" s="9"/>
+      <c r="W51" s="17">
+        <v>3.6779051849370319</v>
+      </c>
+      <c r="X51" s="17"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
@@ -25755,7 +25787,7 @@
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -25848,75 +25880,77 @@
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <v>5.898475056583365</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>5.6013839413057127</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="17">
         <v>7.1547150306476226</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <v>7.6333286835159555</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="17">
         <v>9.2813809386623376</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="17">
         <v>8.0140271423148874</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="17">
         <v>7.4394742201726984</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="17">
         <v>11.016403374744854</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="17">
         <v>1.646847154804405</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="17">
         <v>9.25013350825499</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="17">
         <v>10.412281890585362</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="17">
         <v>12.588032382442009</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="17">
         <v>13.192614901219898</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O53" s="17">
         <v>9.3190618325408821</v>
       </c>
-      <c r="P53" s="18">
+      <c r="P53" s="17">
         <v>11.829384854139136</v>
       </c>
-      <c r="Q53" s="18">
+      <c r="Q53" s="17">
         <v>7.1056958970731898</v>
       </c>
-      <c r="R53" s="18">
+      <c r="R53" s="17">
         <v>8.1057819876216399</v>
       </c>
-      <c r="S53" s="18">
+      <c r="S53" s="17">
         <v>10.530220368134579</v>
       </c>
-      <c r="T53" s="18">
+      <c r="T53" s="17">
         <v>5.54530446958114</v>
       </c>
-      <c r="U53" s="18">
+      <c r="U53" s="17">
         <v>-13.859937741549714</v>
       </c>
-      <c r="V53" s="18">
+      <c r="V53" s="17">
         <v>5.2966209171495109</v>
       </c>
-      <c r="W53" s="18"/>
-      <c r="X53" s="9"/>
+      <c r="W53" s="17">
+        <v>9.6618409036394866</v>
+      </c>
+      <c r="X53" s="17"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
@@ -25985,38 +26019,39 @@
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
     </row>
-    <row r="54" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
+    <row r="54" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -26108,8 +26143,8 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -26201,64 +26236,65 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -26325,80 +26361,85 @@
       <c r="V67" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="6"/>
+      <c r="W67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X67" s="6"/>
     </row>
-    <row r="68" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="17">
         <v>-10.303888998274715</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="17">
         <v>0.1398716801383415</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="17">
         <v>10.464455255131199</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="17">
         <v>16.778530479810215</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="17">
         <v>16.358804326329917</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="17">
         <v>18.202358976622236</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="17">
         <v>19.932365229457389</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="17">
         <v>15.113485687871432</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="17">
         <v>-7.477155585750225</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K69" s="17">
         <v>17.265101224734352</v>
       </c>
-      <c r="L69" s="18">
+      <c r="L69" s="17">
         <v>16.640821190186401</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="17">
         <v>19.006186692467423</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="17">
         <v>19.174981794364811</v>
       </c>
-      <c r="O69" s="18">
+      <c r="O69" s="17">
         <v>10.422125320544779</v>
       </c>
-      <c r="P69" s="18">
+      <c r="P69" s="17">
         <v>12.112772062595269</v>
       </c>
-      <c r="Q69" s="18">
+      <c r="Q69" s="17">
         <v>6.7280077097299511</v>
       </c>
-      <c r="R69" s="18">
+      <c r="R69" s="17">
         <v>8.9454755503736862</v>
       </c>
-      <c r="S69" s="18">
+      <c r="S69" s="17">
         <v>7.9709170753320677</v>
       </c>
-      <c r="T69" s="18">
+      <c r="T69" s="17">
         <v>5.826616832896093</v>
       </c>
-      <c r="U69" s="18">
+      <c r="U69" s="17">
         <v>-31.458046796349663</v>
       </c>
-      <c r="V69" s="18">
+      <c r="V69" s="17">
         <v>3.4296505379000735</v>
       </c>
-      <c r="W69" s="18"/>
-      <c r="X69" s="9"/>
+      <c r="W69" s="17">
+        <v>9.7676273980420945</v>
+      </c>
+      <c r="X69" s="17"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -26467,75 +26508,77 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="17">
         <v>1.3660350565556314</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="17">
         <v>1.617806106057202</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="17">
         <v>1.8381676936692486</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="17">
         <v>1.7276231558114574</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="17">
         <v>2.0193770925616974</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="17">
         <v>0.31873446225034741</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="17">
         <v>1.8492621692061562</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I70" s="17">
         <v>1.5236717567997005</v>
       </c>
-      <c r="J70" s="18">
+      <c r="J70" s="17">
         <v>1.913004098366784</v>
       </c>
-      <c r="K70" s="18">
+      <c r="K70" s="17">
         <v>2.0114375564412654</v>
       </c>
-      <c r="L70" s="18">
+      <c r="L70" s="17">
         <v>2.3013618246069143</v>
       </c>
-      <c r="M70" s="18">
+      <c r="M70" s="17">
         <v>2.1885300135396619</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N70" s="17">
         <v>2.0560876001394632</v>
       </c>
-      <c r="O70" s="18">
+      <c r="O70" s="17">
         <v>1.0502576429610997</v>
       </c>
-      <c r="P70" s="18">
+      <c r="P70" s="17">
         <v>4.1957459596108748</v>
       </c>
-      <c r="Q70" s="18">
+      <c r="Q70" s="17">
         <v>2.2226199345110018</v>
       </c>
-      <c r="R70" s="18">
+      <c r="R70" s="17">
         <v>2.1626211635076515</v>
       </c>
-      <c r="S70" s="18">
+      <c r="S70" s="17">
         <v>2.377372181235657</v>
       </c>
-      <c r="T70" s="18">
+      <c r="T70" s="17">
         <v>2.0142150899576876</v>
       </c>
-      <c r="U70" s="18">
+      <c r="U70" s="17">
         <v>1.7601759571622182</v>
       </c>
-      <c r="V70" s="18">
+      <c r="V70" s="17">
         <v>1.1569149312400668</v>
       </c>
-      <c r="W70" s="18"/>
-      <c r="X70" s="9"/>
+      <c r="W70" s="17">
+        <v>1.4516924844305805</v>
+      </c>
+      <c r="X70" s="17"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -26604,8 +26647,8 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -26697,75 +26740,77 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="17">
         <v>-1.1727762031834175</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="17">
         <v>1.3259864311187926</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="17">
         <v>3.5214987099344626</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="17">
         <v>4.8616324506492958</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="17">
         <v>5.3445619532093787</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="17">
         <v>4.89937973587638</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="17">
         <v>7.0683823741765082</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="17">
         <v>5.9171958256501966</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J72" s="17">
         <v>-1.3863749151783509</v>
       </c>
-      <c r="K72" s="18">
+      <c r="K72" s="17">
         <v>7.0400185321120432</v>
       </c>
-      <c r="L72" s="18">
+      <c r="L72" s="17">
         <v>7.4801323371281399</v>
       </c>
-      <c r="M72" s="18">
+      <c r="M72" s="17">
         <v>8.7799919323624493</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N72" s="17">
         <v>9.3963652854585717</v>
       </c>
-      <c r="O72" s="18">
+      <c r="O72" s="17">
         <v>5.4279489262101634</v>
       </c>
-      <c r="P72" s="18">
+      <c r="P72" s="17">
         <v>8.069048357732882</v>
       </c>
-      <c r="Q72" s="18">
+      <c r="Q72" s="17">
         <v>4.5092992746357226</v>
       </c>
-      <c r="R72" s="18">
+      <c r="R72" s="17">
         <v>5.6782988466505486</v>
       </c>
-      <c r="S72" s="18">
+      <c r="S72" s="17">
         <v>5.3662424966437214</v>
       </c>
-      <c r="T72" s="18">
+      <c r="T72" s="17">
         <v>4.1017026711050733</v>
       </c>
-      <c r="U72" s="18">
+      <c r="U72" s="17">
         <v>-16.729900784566482</v>
       </c>
-      <c r="V72" s="18">
+      <c r="V72" s="17">
         <v>2.1982215543428651</v>
       </c>
-      <c r="W72" s="18"/>
-      <c r="X72" s="9"/>
+      <c r="W72" s="17">
+        <v>5.307741229146032</v>
+      </c>
+      <c r="X72" s="17"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -26834,38 +26879,39 @@
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
+    <row r="73" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -26957,8 +27003,8 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -27055,32 +27101,32 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>5</v>
@@ -27106,152 +27152,158 @@
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="14">
         <v>2000</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="14">
         <v>2001</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="14">
         <v>2002</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="14">
         <v>2003</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="14">
         <v>2004</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="14">
         <v>2005</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="14">
         <v>2006</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I85" s="14">
         <v>2007</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J85" s="14">
         <v>2008</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K85" s="14">
         <v>2009</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L85" s="14">
         <v>2010</v>
       </c>
-      <c r="M85" s="15">
+      <c r="M85" s="14">
         <v>2011</v>
       </c>
-      <c r="N85" s="15">
+      <c r="N85" s="14">
         <v>2012</v>
       </c>
-      <c r="O85" s="15">
+      <c r="O85" s="14">
         <v>2013</v>
       </c>
-      <c r="P85" s="15">
+      <c r="P85" s="14">
         <v>2014</v>
       </c>
-      <c r="Q85" s="15">
+      <c r="Q85" s="14">
         <v>2015</v>
       </c>
-      <c r="R85" s="15">
+      <c r="R85" s="14">
         <v>2016</v>
       </c>
-      <c r="S85" s="15">
+      <c r="S85" s="14">
         <v>2017</v>
       </c>
-      <c r="T85" s="15">
+      <c r="T85" s="14">
         <v>2018</v>
       </c>
-      <c r="U85" s="15">
+      <c r="U85" s="14">
         <v>2019</v>
       </c>
-      <c r="V85" s="15">
+      <c r="V85" s="14">
         <v>2020</v>
       </c>
-      <c r="W85" s="15">
+      <c r="W85" s="14">
         <v>2021</v>
       </c>
+      <c r="X85" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="86" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="17">
         <v>45.752333238321171</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="17">
         <v>47.946657381009537</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="17">
         <v>48.379966733726967</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="17">
         <v>49.151141034987461</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="17">
         <v>51.073753412095115</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="17">
         <v>54.311099879101974</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="17">
         <v>57.195962541645308</v>
       </c>
-      <c r="I87" s="18">
+      <c r="I87" s="17">
         <v>58.648776787583301</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="17">
         <v>64.903817207191963</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K87" s="17">
         <v>67.439606508059128</v>
       </c>
-      <c r="L87" s="18">
+      <c r="L87" s="17">
         <v>70.796259588409782</v>
       </c>
-      <c r="M87" s="18">
+      <c r="M87" s="17">
         <v>74.456399170727153</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N87" s="17">
         <v>77.611090133668313</v>
       </c>
-      <c r="O87" s="18">
+      <c r="O87" s="17">
         <v>81.447131130500253</v>
       </c>
-      <c r="P87" s="18">
+      <c r="P87" s="17">
         <v>85.879910626577441</v>
       </c>
-      <c r="Q87" s="18">
+      <c r="Q87" s="17">
         <v>89.108468238671364</v>
       </c>
-      <c r="R87" s="18">
+      <c r="R87" s="17">
         <v>91.470896226250943</v>
       </c>
-      <c r="S87" s="18">
+      <c r="S87" s="17">
         <v>94.234307800073367</v>
       </c>
-      <c r="T87" s="18">
+      <c r="T87" s="17">
         <v>100</v>
       </c>
-      <c r="U87" s="18">
+      <c r="U87" s="17">
         <v>100.38417695930258</v>
       </c>
-      <c r="V87" s="18">
+      <c r="V87" s="17">
         <v>103.82317845033289</v>
       </c>
-      <c r="W87" s="18">
+      <c r="W87" s="17">
         <v>108.93096819532187</v>
       </c>
-      <c r="X87" s="9"/>
+      <c r="X87" s="17">
+        <v>115.5919257849628</v>
+      </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -27325,77 +27377,79 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="17">
         <v>57.47813518331202</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="17">
         <v>61.54164071724837</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="17">
         <v>64.483113337676713</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>67.265479974021829</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="17">
         <v>69.428032101363641</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="17">
         <v>72.185702545904135</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="17">
         <v>74.653247388303541</v>
       </c>
-      <c r="I88" s="18">
+      <c r="I88" s="17">
         <v>75.210291113688797</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J88" s="17">
         <v>77.723543252367975</v>
       </c>
-      <c r="K88" s="18">
+      <c r="K88" s="17">
         <v>79.421128693584535</v>
       </c>
-      <c r="L88" s="18">
+      <c r="L88" s="17">
         <v>80.553389964317972</v>
       </c>
-      <c r="M88" s="18">
+      <c r="M88" s="17">
         <v>82.144063219468961</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N88" s="17">
         <v>85.121389354065684</v>
       </c>
-      <c r="O88" s="18">
+      <c r="O88" s="17">
         <v>87.63243969893017</v>
       </c>
-      <c r="P88" s="18">
+      <c r="P88" s="17">
         <v>89.777992921514155</v>
       </c>
-      <c r="Q88" s="18">
+      <c r="Q88" s="17">
         <v>92.804157118692913</v>
       </c>
-      <c r="R88" s="18">
+      <c r="R88" s="17">
         <v>95.03452902424543</v>
       </c>
-      <c r="S88" s="18">
+      <c r="S88" s="17">
         <v>96.583002807421266</v>
       </c>
-      <c r="T88" s="18">
+      <c r="T88" s="17">
         <v>99.999999999999972</v>
       </c>
-      <c r="U88" s="18">
+      <c r="U88" s="17">
         <v>102.64534296945844</v>
       </c>
-      <c r="V88" s="18">
+      <c r="V88" s="17">
         <v>105.77566492253754</v>
       </c>
-      <c r="W88" s="18">
+      <c r="W88" s="17">
         <v>107.3084934288556</v>
       </c>
-      <c r="X88" s="9"/>
+      <c r="X88" s="17">
+        <v>109.66322527307982</v>
+      </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -27469,8 +27523,8 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -27567,77 +27621,79 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="17">
         <v>54.927167596244416</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="17">
         <v>58.857297252207452</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="17">
         <v>61.340750421444369</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="17">
         <v>63.493580686976422</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="17">
         <v>65.171839114663328</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="17">
         <v>67.607368094863091</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90" s="17">
         <v>69.614749970933261</v>
       </c>
-      <c r="I90" s="18">
+      <c r="I90" s="17">
         <v>69.856030034220254</v>
       </c>
-      <c r="J90" s="18">
+      <c r="J90" s="17">
         <v>73.219132625102986</v>
       </c>
-      <c r="K90" s="18">
+      <c r="K90" s="17">
         <v>75.471254366215646</v>
       </c>
-      <c r="L90" s="18">
+      <c r="L90" s="17">
         <v>77.029551457625672</v>
       </c>
-      <c r="M90" s="18">
+      <c r="M90" s="17">
         <v>79.130983229230083</v>
       </c>
-      <c r="N90" s="18">
+      <c r="N90" s="17">
         <v>81.901106481113032</v>
       </c>
-      <c r="O90" s="18">
+      <c r="O90" s="17">
         <v>84.743221419740522</v>
       </c>
-      <c r="P90" s="18">
+      <c r="P90" s="17">
         <v>87.870906686777104</v>
       </c>
-      <c r="Q90" s="18">
+      <c r="Q90" s="17">
         <v>90.928435020817929</v>
       </c>
-      <c r="R90" s="18">
+      <c r="R90" s="17">
         <v>93.18743286321255</v>
       </c>
-      <c r="S90" s="18">
+      <c r="S90" s="17">
         <v>95.327994593431896</v>
       </c>
-      <c r="T90" s="18">
+      <c r="T90" s="17">
         <v>99.999999999999972</v>
       </c>
-      <c r="U90" s="18">
+      <c r="U90" s="17">
         <v>101.38672256210535</v>
       </c>
-      <c r="V90" s="18">
+      <c r="V90" s="17">
         <v>104.88108788107814</v>
       </c>
-      <c r="W90" s="18">
+      <c r="W90" s="17">
         <v>108.06082516925011</v>
       </c>
-      <c r="X90" s="9"/>
+      <c r="X90" s="17">
+        <v>112.52875504983805</v>
+      </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -27711,67 +27767,68 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
+    <row r="91" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
         <v>5</v>
@@ -27797,152 +27854,158 @@
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="14">
         <v>2000</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="14">
         <v>2001</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="14">
         <v>2002</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="14">
         <v>2003</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F104" s="14">
         <v>2004</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="14">
         <v>2005</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="14">
         <v>2006</v>
       </c>
-      <c r="I104" s="15">
+      <c r="I104" s="14">
         <v>2007</v>
       </c>
-      <c r="J104" s="15">
+      <c r="J104" s="14">
         <v>2008</v>
       </c>
-      <c r="K104" s="15">
+      <c r="K104" s="14">
         <v>2009</v>
       </c>
-      <c r="L104" s="15">
+      <c r="L104" s="14">
         <v>2010</v>
       </c>
-      <c r="M104" s="15">
+      <c r="M104" s="14">
         <v>2011</v>
       </c>
-      <c r="N104" s="15">
+      <c r="N104" s="14">
         <v>2012</v>
       </c>
-      <c r="O104" s="15">
+      <c r="O104" s="14">
         <v>2013</v>
       </c>
-      <c r="P104" s="15">
+      <c r="P104" s="14">
         <v>2014</v>
       </c>
-      <c r="Q104" s="15">
+      <c r="Q104" s="14">
         <v>2015</v>
       </c>
-      <c r="R104" s="15">
+      <c r="R104" s="14">
         <v>2016</v>
       </c>
-      <c r="S104" s="15">
+      <c r="S104" s="14">
         <v>2017</v>
       </c>
-      <c r="T104" s="15">
+      <c r="T104" s="14">
         <v>2018</v>
       </c>
-      <c r="U104" s="15">
+      <c r="U104" s="14">
         <v>2019</v>
       </c>
-      <c r="V104" s="15">
+      <c r="V104" s="14">
         <v>2020</v>
       </c>
-      <c r="W104" s="15">
+      <c r="W104" s="14">
         <v>2021</v>
       </c>
+      <c r="X104" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B106" s="17">
         <v>18.121261528304846</v>
       </c>
-      <c r="C106" s="18">
+      <c r="C106" s="17">
         <v>16.084865149470552</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="17">
         <v>15.390831192933158</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="17">
         <v>16.119122038417956</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="17">
         <v>18.172797559529659</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="17">
         <v>20.576224365145695</v>
       </c>
-      <c r="H106" s="18">
+      <c r="H106" s="17">
         <v>23.713106261262844</v>
       </c>
-      <c r="I106" s="18">
+      <c r="I106" s="17">
         <v>27.142794417900863</v>
       </c>
-      <c r="J106" s="18">
+      <c r="J106" s="17">
         <v>31.146187231153029</v>
       </c>
-      <c r="K106" s="18">
+      <c r="K106" s="17">
         <v>29.458100610714137</v>
       </c>
-      <c r="L106" s="18">
+      <c r="L106" s="17">
         <v>33.193024990973235</v>
       </c>
-      <c r="M106" s="18">
+      <c r="M106" s="17">
         <v>36.878371263293964</v>
       </c>
-      <c r="N106" s="18">
+      <c r="N106" s="17">
         <v>40.632242946547166</v>
       </c>
-      <c r="O106" s="18">
+      <c r="O106" s="17">
         <v>44.894155428382497</v>
       </c>
-      <c r="P106" s="18">
+      <c r="P106" s="17">
         <v>47.815180994760354</v>
       </c>
-      <c r="Q106" s="18">
+      <c r="Q106" s="17">
         <v>49.738462170084745</v>
       </c>
-      <c r="R106" s="18">
+      <c r="R106" s="17">
         <v>50.877076128759377</v>
       </c>
-      <c r="S106" s="18">
+      <c r="S106" s="17">
         <v>52.821232620045841</v>
       </c>
-      <c r="T106" s="18">
+      <c r="T106" s="17">
         <v>54.75518378969393</v>
       </c>
-      <c r="U106" s="18">
+      <c r="U106" s="17">
         <v>55.112041528007495</v>
       </c>
-      <c r="V106" s="18">
+      <c r="V106" s="17">
         <v>45.355175469347955</v>
       </c>
-      <c r="W106" s="18">
+      <c r="W106" s="17">
         <v>46.742777802385874</v>
       </c>
-      <c r="X106" s="9"/>
+      <c r="X106" s="17">
+        <v>49.648873410129788</v>
+      </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -28016,77 +28079,79 @@
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="18">
+      <c r="B107" s="17">
         <v>81.878738471695158</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C107" s="17">
         <v>83.915134850529441</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="17">
         <v>84.609168807066851</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="17">
         <v>83.880877961582058</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="17">
         <v>81.827202440470344</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="17">
         <v>79.423775634854309</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H107" s="17">
         <v>76.286893738737163</v>
       </c>
-      <c r="I107" s="18">
+      <c r="I107" s="17">
         <v>72.857205582099141</v>
       </c>
-      <c r="J107" s="18">
+      <c r="J107" s="17">
         <v>68.853812768846964</v>
       </c>
-      <c r="K107" s="18">
+      <c r="K107" s="17">
         <v>70.541899389285874</v>
       </c>
-      <c r="L107" s="18">
+      <c r="L107" s="17">
         <v>66.806975009026772</v>
       </c>
-      <c r="M107" s="18">
+      <c r="M107" s="17">
         <v>63.121628736706029</v>
       </c>
-      <c r="N107" s="18">
+      <c r="N107" s="17">
         <v>59.367757053452841</v>
       </c>
-      <c r="O107" s="18">
+      <c r="O107" s="17">
         <v>55.105844571617503</v>
       </c>
-      <c r="P107" s="18">
+      <c r="P107" s="17">
         <v>52.18481900523966</v>
       </c>
-      <c r="Q107" s="18">
+      <c r="Q107" s="17">
         <v>50.261537829915248</v>
       </c>
-      <c r="R107" s="18">
+      <c r="R107" s="17">
         <v>49.122923871240623</v>
       </c>
-      <c r="S107" s="18">
+      <c r="S107" s="17">
         <v>47.178767379954159</v>
       </c>
-      <c r="T107" s="18">
+      <c r="T107" s="17">
         <v>45.244816210306084</v>
       </c>
-      <c r="U107" s="18">
+      <c r="U107" s="17">
         <v>44.887958471992512</v>
       </c>
-      <c r="V107" s="18">
+      <c r="V107" s="17">
         <v>54.644824530652045</v>
       </c>
-      <c r="W107" s="18">
+      <c r="W107" s="17">
         <v>53.257222197614119</v>
       </c>
-      <c r="X107" s="9"/>
+      <c r="X107" s="17">
+        <v>50.351126589870219</v>
+      </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -28160,8 +28225,8 @@
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -28258,77 +28323,79 @@
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="18">
+      <c r="B109" s="17">
         <v>100</v>
       </c>
-      <c r="C109" s="18">
+      <c r="C109" s="17">
         <v>100</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="17">
         <v>100</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="17">
         <v>100</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="17">
         <v>100</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="17">
         <v>100</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="17">
         <v>100</v>
       </c>
-      <c r="I109" s="18">
+      <c r="I109" s="17">
         <v>100</v>
       </c>
-      <c r="J109" s="18">
+      <c r="J109" s="17">
         <v>100</v>
       </c>
-      <c r="K109" s="18">
+      <c r="K109" s="17">
         <v>100</v>
       </c>
-      <c r="L109" s="18">
+      <c r="L109" s="17">
         <v>100</v>
       </c>
-      <c r="M109" s="18">
+      <c r="M109" s="17">
         <v>100</v>
       </c>
-      <c r="N109" s="18">
+      <c r="N109" s="17">
         <v>100</v>
       </c>
-      <c r="O109" s="18">
+      <c r="O109" s="17">
         <v>100</v>
       </c>
-      <c r="P109" s="18">
+      <c r="P109" s="17">
         <v>100</v>
       </c>
-      <c r="Q109" s="18">
+      <c r="Q109" s="17">
         <v>100</v>
       </c>
-      <c r="R109" s="18">
+      <c r="R109" s="17">
         <v>100</v>
       </c>
-      <c r="S109" s="18">
+      <c r="S109" s="17">
         <v>100</v>
       </c>
-      <c r="T109" s="18">
+      <c r="T109" s="17">
         <v>100</v>
       </c>
-      <c r="U109" s="18">
+      <c r="U109" s="17">
         <v>100</v>
       </c>
-      <c r="V109" s="18">
+      <c r="V109" s="17">
         <v>100</v>
       </c>
-      <c r="W109" s="18">
+      <c r="W109" s="17">
         <v>100</v>
       </c>
-      <c r="X109" s="9"/>
+      <c r="X109" s="17">
+        <v>100</v>
+      </c>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
@@ -28402,38 +28469,39 @@
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
     </row>
-    <row r="110" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
-      <c r="T110" s="13"/>
-      <c r="U110" s="13"/>
-      <c r="V110" s="13"/>
-      <c r="W110" s="13"/>
+    <row r="110" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -28530,8 +28598,8 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -28628,37 +28696,37 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>5</v>
@@ -28684,152 +28752,158 @@
       <c r="U122" s="5"/>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="15">
+      <c r="B123" s="14">
         <v>2000</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C123" s="14">
         <v>2001</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D123" s="14">
         <v>2002</v>
       </c>
-      <c r="E123" s="15">
+      <c r="E123" s="14">
         <v>2003</v>
       </c>
-      <c r="F123" s="15">
+      <c r="F123" s="14">
         <v>2004</v>
       </c>
-      <c r="G123" s="15">
+      <c r="G123" s="14">
         <v>2005</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H123" s="14">
         <v>2006</v>
       </c>
-      <c r="I123" s="15">
+      <c r="I123" s="14">
         <v>2007</v>
       </c>
-      <c r="J123" s="15">
+      <c r="J123" s="14">
         <v>2008</v>
       </c>
-      <c r="K123" s="15">
+      <c r="K123" s="14">
         <v>2009</v>
       </c>
-      <c r="L123" s="15">
+      <c r="L123" s="14">
         <v>2010</v>
       </c>
-      <c r="M123" s="15">
+      <c r="M123" s="14">
         <v>2011</v>
       </c>
-      <c r="N123" s="15">
+      <c r="N123" s="14">
         <v>2012</v>
       </c>
-      <c r="O123" s="15">
+      <c r="O123" s="14">
         <v>2013</v>
       </c>
-      <c r="P123" s="15">
+      <c r="P123" s="14">
         <v>2014</v>
       </c>
-      <c r="Q123" s="15">
+      <c r="Q123" s="14">
         <v>2015</v>
       </c>
-      <c r="R123" s="15">
+      <c r="R123" s="14">
         <v>2016</v>
       </c>
-      <c r="S123" s="15">
+      <c r="S123" s="14">
         <v>2017</v>
       </c>
-      <c r="T123" s="15">
+      <c r="T123" s="14">
         <v>2018</v>
       </c>
-      <c r="U123" s="15">
+      <c r="U123" s="14">
         <v>2019</v>
       </c>
-      <c r="V123" s="15">
+      <c r="V123" s="14">
         <v>2020</v>
       </c>
-      <c r="W123" s="15">
+      <c r="W123" s="14">
         <v>2021</v>
       </c>
+      <c r="X123" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="18">
+      <c r="B125" s="17">
         <v>21.755165224817276</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C125" s="17">
         <v>19.745103018151777</v>
       </c>
-      <c r="D125" s="18">
+      <c r="D125" s="17">
         <v>19.513968254263943</v>
       </c>
-      <c r="E125" s="18">
+      <c r="E125" s="17">
         <v>20.822726679345571</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="17">
         <v>23.189105160470515</v>
       </c>
-      <c r="G125" s="18">
+      <c r="G125" s="17">
         <v>25.613629216744517</v>
       </c>
-      <c r="H125" s="18">
+      <c r="H125" s="17">
         <v>28.861861747846689</v>
       </c>
-      <c r="I125" s="18">
+      <c r="I125" s="17">
         <v>32.329538072667432</v>
       </c>
-      <c r="J125" s="18">
+      <c r="J125" s="17">
         <v>35.136559169764553</v>
       </c>
-      <c r="K125" s="18">
+      <c r="K125" s="17">
         <v>32.966381618360998</v>
       </c>
-      <c r="L125" s="18">
+      <c r="L125" s="17">
         <v>36.115521376993968</v>
       </c>
-      <c r="M125" s="18">
+      <c r="M125" s="17">
         <v>39.193700077620015</v>
       </c>
-      <c r="N125" s="18">
+      <c r="N125" s="17">
         <v>42.878223336383407</v>
       </c>
-      <c r="O125" s="18">
+      <c r="O125" s="17">
         <v>46.710980498795827</v>
       </c>
-      <c r="P125" s="18">
+      <c r="P125" s="17">
         <v>48.923703771318067</v>
       </c>
-      <c r="Q125" s="18">
+      <c r="Q125" s="17">
         <v>50.754329132382303</v>
       </c>
-      <c r="R125" s="18">
+      <c r="R125" s="17">
         <v>51.831831889985189</v>
       </c>
-      <c r="S125" s="18">
+      <c r="S125" s="17">
         <v>53.434277761185164</v>
       </c>
-      <c r="T125" s="18">
+      <c r="T125" s="17">
         <v>54.755183789693916</v>
       </c>
-      <c r="U125" s="18">
+      <c r="U125" s="17">
         <v>55.662450333150048</v>
       </c>
-      <c r="V125" s="18">
+      <c r="V125" s="17">
         <v>45.817323407585889</v>
       </c>
-      <c r="W125" s="18">
+      <c r="W125" s="17">
         <v>46.369395441081252</v>
       </c>
-      <c r="X125" s="9"/>
+      <c r="X125" s="17">
+        <v>48.333184835611661</v>
+      </c>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
@@ -28903,77 +28977,79 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="17">
         <v>78.24483477518271</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C126" s="17">
         <v>80.254896981848219</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="17">
         <v>80.486031745736057</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="17">
         <v>79.177273320654422</v>
       </c>
-      <c r="F126" s="18">
+      <c r="F126" s="17">
         <v>76.810894839529496</v>
       </c>
-      <c r="G126" s="18">
+      <c r="G126" s="17">
         <v>74.386370783255487</v>
       </c>
-      <c r="H126" s="18">
+      <c r="H126" s="17">
         <v>71.138138252153311</v>
       </c>
-      <c r="I126" s="18">
+      <c r="I126" s="17">
         <v>67.670461927332568</v>
       </c>
-      <c r="J126" s="18">
+      <c r="J126" s="17">
         <v>64.863440830235447</v>
       </c>
-      <c r="K126" s="18">
+      <c r="K126" s="17">
         <v>67.033618381639002</v>
       </c>
-      <c r="L126" s="18">
+      <c r="L126" s="17">
         <v>63.884478623006025</v>
       </c>
-      <c r="M126" s="18">
+      <c r="M126" s="17">
         <v>60.806299922379992</v>
       </c>
-      <c r="N126" s="18">
+      <c r="N126" s="17">
         <v>57.121776663616586</v>
       </c>
-      <c r="O126" s="18">
+      <c r="O126" s="17">
         <v>53.289019501204173</v>
       </c>
-      <c r="P126" s="18">
+      <c r="P126" s="17">
         <v>51.07629622868194</v>
       </c>
-      <c r="Q126" s="18">
+      <c r="Q126" s="17">
         <v>49.24567086761769</v>
       </c>
-      <c r="R126" s="18">
+      <c r="R126" s="17">
         <v>48.168168110014825</v>
       </c>
-      <c r="S126" s="18">
+      <c r="S126" s="17">
         <v>46.565722238814828</v>
       </c>
-      <c r="T126" s="18">
+      <c r="T126" s="17">
         <v>45.244816210306084</v>
       </c>
-      <c r="U126" s="18">
+      <c r="U126" s="17">
         <v>44.337549666849959</v>
       </c>
-      <c r="V126" s="18">
+      <c r="V126" s="17">
         <v>54.182676592414111</v>
       </c>
-      <c r="W126" s="18">
+      <c r="W126" s="17">
         <v>53.630604558918741</v>
       </c>
-      <c r="X126" s="9"/>
+      <c r="X126" s="17">
+        <v>51.666815164388325</v>
+      </c>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -29047,8 +29123,8 @@
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -29145,77 +29221,79 @@
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B128" s="17">
         <v>100</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C128" s="17">
         <v>100</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="17">
         <v>100</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="17">
         <v>100</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F128" s="17">
         <v>100</v>
       </c>
-      <c r="G128" s="18">
+      <c r="G128" s="17">
         <v>100</v>
       </c>
-      <c r="H128" s="18">
+      <c r="H128" s="17">
         <v>100</v>
       </c>
-      <c r="I128" s="18">
+      <c r="I128" s="17">
         <v>100</v>
       </c>
-      <c r="J128" s="18">
+      <c r="J128" s="17">
         <v>100</v>
       </c>
-      <c r="K128" s="18">
+      <c r="K128" s="17">
         <v>100</v>
       </c>
-      <c r="L128" s="18">
+      <c r="L128" s="17">
         <v>100</v>
       </c>
-      <c r="M128" s="18">
+      <c r="M128" s="17">
         <v>100</v>
       </c>
-      <c r="N128" s="18">
+      <c r="N128" s="17">
         <v>100</v>
       </c>
-      <c r="O128" s="18">
+      <c r="O128" s="17">
         <v>100</v>
       </c>
-      <c r="P128" s="18">
+      <c r="P128" s="17">
         <v>100</v>
       </c>
-      <c r="Q128" s="18">
+      <c r="Q128" s="17">
         <v>100</v>
       </c>
-      <c r="R128" s="18">
+      <c r="R128" s="17">
         <v>100</v>
       </c>
-      <c r="S128" s="18">
+      <c r="S128" s="17">
         <v>100</v>
       </c>
-      <c r="T128" s="18">
+      <c r="T128" s="17">
         <v>100</v>
       </c>
-      <c r="U128" s="18">
+      <c r="U128" s="17">
         <v>100</v>
       </c>
-      <c r="V128" s="18">
+      <c r="V128" s="17">
         <v>100</v>
       </c>
-      <c r="W128" s="18">
+      <c r="W128" s="17">
         <v>100</v>
       </c>
-      <c r="X128" s="9"/>
+      <c r="X128" s="17">
+        <v>100</v>
+      </c>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
@@ -29289,231 +29367,232 @@
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
     </row>
-    <row r="129" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="13"/>
-      <c r="P129" s="13"/>
-      <c r="Q129" s="13"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="13"/>
-      <c r="T129" s="13"/>
-      <c r="U129" s="13"/>
-      <c r="V129" s="13"/>
-      <c r="W129" s="13"/>
+    <row r="129" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="19"/>
-      <c r="O131" s="19"/>
-      <c r="P131" s="19"/>
-      <c r="Q131" s="19"/>
-      <c r="R131" s="19"/>
-      <c r="S131" s="19"/>
-      <c r="T131" s="19"/>
-      <c r="U131" s="19"/>
-      <c r="V131" s="19"/>
-      <c r="W131" s="19"/>
-      <c r="X131" s="19"/>
-      <c r="Y131" s="19"/>
-      <c r="Z131" s="19"/>
-      <c r="AA131" s="19"/>
-      <c r="AB131" s="19"/>
-      <c r="AC131" s="19"/>
-      <c r="AD131" s="19"/>
-      <c r="AE131" s="19"/>
-      <c r="AF131" s="19"/>
-      <c r="AG131" s="19"/>
-      <c r="AH131" s="19"/>
-      <c r="AI131" s="19"/>
-      <c r="AJ131" s="19"/>
-      <c r="AK131" s="19"/>
-      <c r="AL131" s="19"/>
-      <c r="AM131" s="19"/>
-      <c r="AN131" s="19"/>
-      <c r="AO131" s="19"/>
-      <c r="AP131" s="19"/>
-      <c r="AQ131" s="19"/>
-      <c r="AR131" s="19"/>
-      <c r="AS131" s="19"/>
-      <c r="AT131" s="19"/>
-      <c r="AU131" s="19"/>
-      <c r="AV131" s="19"/>
-      <c r="AW131" s="19"/>
-      <c r="AX131" s="19"/>
-      <c r="AY131" s="19"/>
-      <c r="AZ131" s="19"/>
-      <c r="BA131" s="19"/>
-      <c r="BB131" s="19"/>
-      <c r="BC131" s="19"/>
-      <c r="BD131" s="19"/>
-      <c r="BE131" s="19"/>
-      <c r="BF131" s="19"/>
-      <c r="BG131" s="19"/>
-      <c r="BH131" s="19"/>
-      <c r="BI131" s="19"/>
-      <c r="BJ131" s="19"/>
-      <c r="BK131" s="19"/>
-      <c r="BL131" s="19"/>
-      <c r="BM131" s="19"/>
-      <c r="BN131" s="19"/>
-      <c r="BO131" s="19"/>
-      <c r="BP131" s="19"/>
-      <c r="BQ131" s="19"/>
-      <c r="BR131" s="19"/>
-      <c r="BS131" s="19"/>
-      <c r="BT131" s="19"/>
-      <c r="BU131" s="19"/>
-      <c r="BV131" s="19"/>
-      <c r="BW131" s="19"/>
-      <c r="BX131" s="19"/>
-      <c r="BY131" s="19"/>
-      <c r="BZ131" s="19"/>
-      <c r="CA131" s="19"/>
-      <c r="CB131" s="19"/>
-      <c r="CC131" s="19"/>
-      <c r="CD131" s="19"/>
-      <c r="CE131" s="19"/>
-      <c r="CF131" s="19"/>
-      <c r="CG131" s="19"/>
-      <c r="CH131" s="19"/>
-      <c r="CI131" s="19"/>
-      <c r="CJ131" s="19"/>
-      <c r="CK131" s="19"/>
-      <c r="CL131" s="19"/>
-      <c r="CM131" s="19"/>
-      <c r="CN131" s="19"/>
-      <c r="CO131" s="19"/>
-      <c r="CP131" s="19"/>
-      <c r="CQ131" s="19"/>
-      <c r="CR131" s="19"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="18"/>
+      <c r="T131" s="18"/>
+      <c r="U131" s="18"/>
+      <c r="V131" s="18"/>
+      <c r="W131" s="18"/>
+      <c r="X131" s="18"/>
+      <c r="Y131" s="18"/>
+      <c r="Z131" s="18"/>
+      <c r="AA131" s="18"/>
+      <c r="AB131" s="18"/>
+      <c r="AC131" s="18"/>
+      <c r="AD131" s="18"/>
+      <c r="AE131" s="18"/>
+      <c r="AF131" s="18"/>
+      <c r="AG131" s="18"/>
+      <c r="AH131" s="18"/>
+      <c r="AI131" s="18"/>
+      <c r="AJ131" s="18"/>
+      <c r="AK131" s="18"/>
+      <c r="AL131" s="18"/>
+      <c r="AM131" s="18"/>
+      <c r="AN131" s="18"/>
+      <c r="AO131" s="18"/>
+      <c r="AP131" s="18"/>
+      <c r="AQ131" s="18"/>
+      <c r="AR131" s="18"/>
+      <c r="AS131" s="18"/>
+      <c r="AT131" s="18"/>
+      <c r="AU131" s="18"/>
+      <c r="AV131" s="18"/>
+      <c r="AW131" s="18"/>
+      <c r="AX131" s="18"/>
+      <c r="AY131" s="18"/>
+      <c r="AZ131" s="18"/>
+      <c r="BA131" s="18"/>
+      <c r="BB131" s="18"/>
+      <c r="BC131" s="18"/>
+      <c r="BD131" s="18"/>
+      <c r="BE131" s="18"/>
+      <c r="BF131" s="18"/>
+      <c r="BG131" s="18"/>
+      <c r="BH131" s="18"/>
+      <c r="BI131" s="18"/>
+      <c r="BJ131" s="18"/>
+      <c r="BK131" s="18"/>
+      <c r="BL131" s="18"/>
+      <c r="BM131" s="18"/>
+      <c r="BN131" s="18"/>
+      <c r="BO131" s="18"/>
+      <c r="BP131" s="18"/>
+      <c r="BQ131" s="18"/>
+      <c r="BR131" s="18"/>
+      <c r="BS131" s="18"/>
+      <c r="BT131" s="18"/>
+      <c r="BU131" s="18"/>
+      <c r="BV131" s="18"/>
+      <c r="BW131" s="18"/>
+      <c r="BX131" s="18"/>
+      <c r="BY131" s="18"/>
+      <c r="BZ131" s="18"/>
+      <c r="CA131" s="18"/>
+      <c r="CB131" s="18"/>
+      <c r="CC131" s="18"/>
+      <c r="CD131" s="18"/>
+      <c r="CE131" s="18"/>
+      <c r="CF131" s="18"/>
+      <c r="CG131" s="18"/>
+      <c r="CH131" s="18"/>
+      <c r="CI131" s="18"/>
+      <c r="CJ131" s="18"/>
+      <c r="CK131" s="18"/>
+      <c r="CL131" s="18"/>
+      <c r="CM131" s="18"/>
+      <c r="CN131" s="18"/>
+      <c r="CO131" s="18"/>
+      <c r="CP131" s="18"/>
+      <c r="CQ131" s="18"/>
+      <c r="CR131" s="18"/>
     </row>
-    <row r="132" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="19"/>
-      <c r="O132" s="19"/>
-      <c r="P132" s="19"/>
-      <c r="Q132" s="19"/>
-      <c r="R132" s="19"/>
-      <c r="S132" s="19"/>
-      <c r="T132" s="19"/>
-      <c r="U132" s="19"/>
-      <c r="V132" s="19"/>
-      <c r="W132" s="19"/>
-      <c r="X132" s="19"/>
-      <c r="Y132" s="19"/>
-      <c r="Z132" s="19"/>
-      <c r="AA132" s="19"/>
-      <c r="AB132" s="19"/>
-      <c r="AC132" s="19"/>
-      <c r="AD132" s="19"/>
-      <c r="AE132" s="19"/>
-      <c r="AF132" s="19"/>
-      <c r="AG132" s="19"/>
-      <c r="AH132" s="19"/>
-      <c r="AI132" s="19"/>
-      <c r="AJ132" s="19"/>
-      <c r="AK132" s="19"/>
-      <c r="AL132" s="19"/>
-      <c r="AM132" s="19"/>
-      <c r="AN132" s="19"/>
-      <c r="AO132" s="19"/>
-      <c r="AP132" s="19"/>
-      <c r="AQ132" s="19"/>
-      <c r="AR132" s="19"/>
-      <c r="AS132" s="19"/>
-      <c r="AT132" s="19"/>
-      <c r="AU132" s="19"/>
-      <c r="AV132" s="19"/>
-      <c r="AW132" s="19"/>
-      <c r="AX132" s="19"/>
-      <c r="AY132" s="19"/>
-      <c r="AZ132" s="19"/>
-      <c r="BA132" s="19"/>
-      <c r="BB132" s="19"/>
-      <c r="BC132" s="19"/>
-      <c r="BD132" s="19"/>
-      <c r="BE132" s="19"/>
-      <c r="BF132" s="19"/>
-      <c r="BG132" s="19"/>
-      <c r="BH132" s="19"/>
-      <c r="BI132" s="19"/>
-      <c r="BJ132" s="19"/>
-      <c r="BK132" s="19"/>
-      <c r="BL132" s="19"/>
-      <c r="BM132" s="19"/>
-      <c r="BN132" s="19"/>
-      <c r="BO132" s="19"/>
-      <c r="BP132" s="19"/>
-      <c r="BQ132" s="19"/>
-      <c r="BR132" s="19"/>
-      <c r="BS132" s="19"/>
-      <c r="BT132" s="19"/>
-      <c r="BU132" s="19"/>
-      <c r="BV132" s="19"/>
-      <c r="BW132" s="19"/>
-      <c r="BX132" s="19"/>
-      <c r="BY132" s="19"/>
-      <c r="BZ132" s="19"/>
-      <c r="CA132" s="19"/>
-      <c r="CB132" s="19"/>
-      <c r="CC132" s="19"/>
-      <c r="CD132" s="19"/>
-      <c r="CE132" s="19"/>
-      <c r="CF132" s="19"/>
-      <c r="CG132" s="19"/>
-      <c r="CH132" s="19"/>
-      <c r="CI132" s="19"/>
-      <c r="CJ132" s="19"/>
-      <c r="CK132" s="19"/>
-      <c r="CL132" s="19"/>
-      <c r="CM132" s="19"/>
-      <c r="CN132" s="19"/>
-      <c r="CO132" s="19"/>
-      <c r="CP132" s="19"/>
-      <c r="CQ132" s="19"/>
-      <c r="CR132" s="19"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="18"/>
+      <c r="R132" s="18"/>
+      <c r="S132" s="18"/>
+      <c r="T132" s="18"/>
+      <c r="U132" s="18"/>
+      <c r="V132" s="18"/>
+      <c r="W132" s="18"/>
+      <c r="X132" s="18"/>
+      <c r="Y132" s="18"/>
+      <c r="Z132" s="18"/>
+      <c r="AA132" s="18"/>
+      <c r="AB132" s="18"/>
+      <c r="AC132" s="18"/>
+      <c r="AD132" s="18"/>
+      <c r="AE132" s="18"/>
+      <c r="AF132" s="18"/>
+      <c r="AG132" s="18"/>
+      <c r="AH132" s="18"/>
+      <c r="AI132" s="18"/>
+      <c r="AJ132" s="18"/>
+      <c r="AK132" s="18"/>
+      <c r="AL132" s="18"/>
+      <c r="AM132" s="18"/>
+      <c r="AN132" s="18"/>
+      <c r="AO132" s="18"/>
+      <c r="AP132" s="18"/>
+      <c r="AQ132" s="18"/>
+      <c r="AR132" s="18"/>
+      <c r="AS132" s="18"/>
+      <c r="AT132" s="18"/>
+      <c r="AU132" s="18"/>
+      <c r="AV132" s="18"/>
+      <c r="AW132" s="18"/>
+      <c r="AX132" s="18"/>
+      <c r="AY132" s="18"/>
+      <c r="AZ132" s="18"/>
+      <c r="BA132" s="18"/>
+      <c r="BB132" s="18"/>
+      <c r="BC132" s="18"/>
+      <c r="BD132" s="18"/>
+      <c r="BE132" s="18"/>
+      <c r="BF132" s="18"/>
+      <c r="BG132" s="18"/>
+      <c r="BH132" s="18"/>
+      <c r="BI132" s="18"/>
+      <c r="BJ132" s="18"/>
+      <c r="BK132" s="18"/>
+      <c r="BL132" s="18"/>
+      <c r="BM132" s="18"/>
+      <c r="BN132" s="18"/>
+      <c r="BO132" s="18"/>
+      <c r="BP132" s="18"/>
+      <c r="BQ132" s="18"/>
+      <c r="BR132" s="18"/>
+      <c r="BS132" s="18"/>
+      <c r="BT132" s="18"/>
+      <c r="BU132" s="18"/>
+      <c r="BV132" s="18"/>
+      <c r="BW132" s="18"/>
+      <c r="BX132" s="18"/>
+      <c r="BY132" s="18"/>
+      <c r="BZ132" s="18"/>
+      <c r="CA132" s="18"/>
+      <c r="CB132" s="18"/>
+      <c r="CC132" s="18"/>
+      <c r="CD132" s="18"/>
+      <c r="CE132" s="18"/>
+      <c r="CF132" s="18"/>
+      <c r="CG132" s="18"/>
+      <c r="CH132" s="18"/>
+      <c r="CI132" s="18"/>
+      <c r="CJ132" s="18"/>
+      <c r="CK132" s="18"/>
+      <c r="CL132" s="18"/>
+      <c r="CM132" s="18"/>
+      <c r="CN132" s="18"/>
+      <c r="CO132" s="18"/>
+      <c r="CP132" s="18"/>
+      <c r="CQ132" s="18"/>
+      <c r="CR132" s="18"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -29521,9 +29600,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="22" man="1"/>
-    <brk id="76" max="22" man="1"/>
-    <brk id="94" max="22" man="1"/>
+    <brk id="38" max="23" man="1"/>
+    <brk id="76" max="23" man="1"/>
+    <brk id="94" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5D10D-F2B5-42FC-9098-8EDF7F955EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE472B-13D0-4C4E-AED5-7616379A10AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="4530" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -607,13 +607,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23567,10 +23567,10 @@
   </sheetPr>
   <dimension ref="A1:CR132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A2" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V28" sqref="V28"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23592,7 +23592,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23602,7 +23602,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23783,10 +23783,10 @@
         <v>490567.10803350247</v>
       </c>
       <c r="W12" s="8">
-        <v>532354.00619522529</v>
+        <v>532674.00487024733</v>
       </c>
       <c r="X12" s="8">
-        <v>620084.59095587651</v>
+        <v>620478.83180324745</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -24173,10 +24173,10 @@
         <v>1081612.1930010803</v>
       </c>
       <c r="W15" s="11">
-        <v>1138901.0906580151</v>
+        <v>1139221.0893330369</v>
       </c>
       <c r="X15" s="11">
-        <v>1248939.9020872074</v>
+        <v>1249334.1429345785</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24490,7 +24490,7 @@
     </row>
     <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
@@ -24500,7 +24500,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24681,10 +24681,10 @@
         <v>472502.4944869905</v>
       </c>
       <c r="W31" s="8">
-        <v>488707.67883075483</v>
+        <v>488998.43734936201</v>
       </c>
       <c r="X31" s="8">
-        <v>536442.8239645632</v>
+        <v>536773.2479823007</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -25071,10 +25071,10 @@
         <v>1031274.7654062201</v>
       </c>
       <c r="W34" s="11">
-        <v>1053944.4695838783</v>
+        <v>1054235.2281024854</v>
       </c>
       <c r="X34" s="11">
-        <v>1109885.1147282864</v>
+        <v>1110215.5387460238</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25388,7 +25388,7 @@
     </row>
     <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.2">
@@ -25398,7 +25398,7 @@
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
@@ -25574,10 +25574,10 @@
         <v>-29.109909008050153</v>
       </c>
       <c r="V50" s="17">
-        <v>8.5180798870170236</v>
+        <v>8.5833102438390938</v>
       </c>
       <c r="W50" s="17">
-        <v>16.479745383653338</v>
+        <v>16.483782976116572</v>
       </c>
       <c r="X50" s="17"/>
       <c r="Y50" s="9"/>
@@ -25945,10 +25945,10 @@
         <v>-13.859937741549714</v>
       </c>
       <c r="V53" s="17">
-        <v>5.2966209171495109</v>
+        <v>5.3262062599454367</v>
       </c>
       <c r="W53" s="17">
-        <v>9.6618409036394866</v>
+        <v>9.6656438888440732</v>
       </c>
       <c r="X53" s="17"/>
       <c r="Y53" s="9"/>
@@ -26248,7 +26248,7 @@
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.2">
@@ -26258,7 +26258,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.2">
@@ -26434,10 +26434,10 @@
         <v>-31.458046796349663</v>
       </c>
       <c r="V69" s="17">
-        <v>3.4296505379000735</v>
+        <v>3.4911864074456531</v>
       </c>
       <c r="W69" s="17">
-        <v>9.7676273980420945</v>
+        <v>9.7699311457730289</v>
       </c>
       <c r="X69" s="17"/>
       <c r="Y69" s="9"/>
@@ -26805,10 +26805,10 @@
         <v>-16.729900784566482</v>
       </c>
       <c r="V72" s="17">
-        <v>2.1982215543428651</v>
+        <v>2.2264156427042252</v>
       </c>
       <c r="W72" s="17">
-        <v>5.307741229146032</v>
+        <v>5.3100398422747901</v>
       </c>
       <c r="X72" s="17"/>
       <c r="Y72" s="9"/>
@@ -27108,7 +27108,7 @@
     </row>
     <row r="78" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:96" x14ac:dyDescent="0.2">
@@ -27118,7 +27118,7 @@
     </row>
     <row r="81" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
@@ -27299,10 +27299,10 @@
         <v>103.82317845033289</v>
       </c>
       <c r="W87" s="17">
-        <v>108.93096819532187</v>
+        <v>108.93163744195805</v>
       </c>
       <c r="X87" s="17">
-        <v>115.5919257849628</v>
+        <v>115.5942167638926</v>
       </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -27689,10 +27689,10 @@
         <v>104.88108788107814</v>
       </c>
       <c r="W90" s="17">
-        <v>108.06082516925011</v>
+        <v>108.06137557967183</v>
       </c>
       <c r="X90" s="17">
-        <v>112.52875504983805</v>
+        <v>112.53077437068551</v>
       </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -27810,7 +27810,7 @@
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.2">
@@ -27820,7 +27820,7 @@
     </row>
     <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.2">
@@ -28001,10 +28001,10 @@
         <v>45.355175469347955</v>
       </c>
       <c r="W106" s="17">
-        <v>46.742777802385874</v>
+        <v>46.757737357381977</v>
       </c>
       <c r="X106" s="17">
-        <v>49.648873410129788</v>
+        <v>49.6647622505374</v>
       </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -28147,10 +28147,10 @@
         <v>54.644824530652045</v>
       </c>
       <c r="W107" s="17">
-        <v>53.257222197614119</v>
+        <v>53.24226264261803</v>
       </c>
       <c r="X107" s="17">
-        <v>50.351126589870219</v>
+        <v>50.3352377494626</v>
       </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -28708,7 +28708,7 @@
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:96" x14ac:dyDescent="0.2">
@@ -28718,7 +28718,7 @@
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:96" x14ac:dyDescent="0.2">
@@ -28899,10 +28899,10 @@
         <v>45.817323407585889</v>
       </c>
       <c r="W125" s="17">
-        <v>46.369395441081252</v>
+        <v>46.384186784339271</v>
       </c>
       <c r="X125" s="17">
-        <v>48.333184835611661</v>
+        <v>48.348561990816677</v>
       </c>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
@@ -29045,10 +29045,10 @@
         <v>54.182676592414111</v>
       </c>
       <c r="W126" s="17">
-        <v>53.630604558918741</v>
+        <v>53.615813215660722</v>
       </c>
       <c r="X126" s="17">
-        <v>51.666815164388325</v>
+        <v>51.651438009183316</v>
       </c>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>

--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE472B-13D0-4C4E-AED5-7616379A10AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12EB191-01FE-44FD-B512-646416357F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$X$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$Y$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -607,13 +607,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23570,14 +23573,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="24" width="11" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23592,7 +23595,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23602,7 +23605,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23637,6 +23640,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23710,6 +23714,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23788,7 +23795,9 @@
       <c r="X12" s="8">
         <v>620478.83180324745</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>692553.04278208083</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23934,7 +23943,9 @@
       <c r="X13" s="8">
         <v>628855.31113133102</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>674047.95786410163</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24178,7 +24189,9 @@
       <c r="X15" s="11">
         <v>1249334.1429345785</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="11">
+        <v>1366601.0006461823</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24276,6 +24289,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -24490,7 +24504,7 @@
     </row>
     <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
@@ -24500,7 +24514,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24535,6 +24549,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -24608,6 +24623,9 @@
       </c>
       <c r="X29" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="30" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24686,7 +24704,9 @@
       <c r="X31" s="8">
         <v>536773.2479823007</v>
       </c>
-      <c r="Y31" s="9"/>
+      <c r="Y31" s="8">
+        <v>563930.09504232439</v>
+      </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -24832,7 +24852,9 @@
       <c r="X32" s="8">
         <v>573442.29076372308</v>
       </c>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="8">
+        <v>585711.20821062755</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -25076,7 +25098,9 @@
       <c r="X34" s="11">
         <v>1110215.5387460238</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="11">
+        <v>1149641.3032529519</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25174,6 +25198,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
     </row>
     <row r="36" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -25388,7 +25413,7 @@
     </row>
     <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.2">
@@ -25398,7 +25423,7 @@
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
@@ -25433,6 +25458,7 @@
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -25504,7 +25530,10 @@
       <c r="W48" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="X48" s="16"/>
+      <c r="X48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="16"/>
     </row>
     <row r="49" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -25579,8 +25608,10 @@
       <c r="W50" s="17">
         <v>16.483782976116572</v>
       </c>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="9"/>
+      <c r="X50" s="17">
+        <v>11.615901668936871</v>
+      </c>
+      <c r="Y50" s="17"/>
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
@@ -25718,8 +25749,10 @@
       <c r="W51" s="17">
         <v>3.6779051849370319</v>
       </c>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="9"/>
+      <c r="X51" s="17">
+        <v>7.1864936071649907</v>
+      </c>
+      <c r="Y51" s="17"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
@@ -25950,8 +25983,10 @@
       <c r="W53" s="17">
         <v>9.6656438888440732</v>
       </c>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="9"/>
+      <c r="X53" s="17">
+        <v>9.3863485901501349</v>
+      </c>
+      <c r="Y53" s="17"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
@@ -26044,6 +26079,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
     </row>
     <row r="55" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -26248,7 +26284,7 @@
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.2">
@@ -26258,7 +26294,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.2">
@@ -26293,6 +26329,7 @@
       <c r="V66" s="15"/>
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
     </row>
     <row r="67" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -26364,7 +26401,10 @@
       <c r="W67" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="X67" s="6"/>
+      <c r="X67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="6"/>
     </row>
     <row r="68" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -26439,8 +26479,10 @@
       <c r="W69" s="17">
         <v>9.7699311457730289</v>
       </c>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="9"/>
+      <c r="X69" s="17">
+        <v>5.0592772948548941</v>
+      </c>
+      <c r="Y69" s="17"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -26578,8 +26620,10 @@
       <c r="W70" s="17">
         <v>1.4516924844305805</v>
       </c>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="9"/>
+      <c r="X70" s="17">
+        <v>2.1395208627819358</v>
+      </c>
+      <c r="Y70" s="17"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
@@ -26810,8 +26854,10 @@
       <c r="W72" s="17">
         <v>5.3100398422747901</v>
       </c>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="9"/>
+      <c r="X72" s="17">
+        <v>3.5511811113235723</v>
+      </c>
+      <c r="Y72" s="17"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -26904,6 +26950,7 @@
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
     </row>
     <row r="74" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -27108,7 +27155,7 @@
     </row>
     <row r="78" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:96" x14ac:dyDescent="0.2">
@@ -27118,7 +27165,7 @@
     </row>
     <row r="81" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
@@ -27153,6 +27200,7 @@
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -27226,6 +27274,9 @@
       </c>
       <c r="X85" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y85" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="86" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27304,7 +27355,9 @@
       <c r="X87" s="17">
         <v>115.5942167638926</v>
       </c>
-      <c r="Y87" s="9"/>
+      <c r="Y87" s="17">
+        <v>122.80831416349626</v>
+      </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -27450,7 +27503,9 @@
       <c r="X88" s="17">
         <v>109.66322527307982</v>
       </c>
-      <c r="Y88" s="9"/>
+      <c r="Y88" s="17">
+        <v>115.08196333195441</v>
+      </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -27694,7 +27749,9 @@
       <c r="X90" s="17">
         <v>112.53077437068551</v>
       </c>
-      <c r="Y90" s="9"/>
+      <c r="Y90" s="17">
+        <v>118.87194699593127</v>
+      </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -27792,6 +27849,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
     </row>
     <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -27810,7 +27868,7 @@
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.2">
@@ -27820,7 +27878,7 @@
     </row>
     <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.2">
@@ -27855,6 +27913,7 @@
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -27928,6 +27987,9 @@
       </c>
       <c r="X104" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y104" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="105" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28006,7 +28068,9 @@
       <c r="X106" s="17">
         <v>49.6647622505374</v>
       </c>
-      <c r="Y106" s="9"/>
+      <c r="Y106" s="17">
+        <v>50.677047832879872</v>
+      </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -28152,7 +28216,9 @@
       <c r="X107" s="17">
         <v>50.3352377494626</v>
       </c>
-      <c r="Y107" s="9"/>
+      <c r="Y107" s="17">
+        <v>49.322952167120135</v>
+      </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -28396,7 +28462,9 @@
       <c r="X109" s="17">
         <v>100</v>
       </c>
-      <c r="Y109" s="9"/>
+      <c r="Y109" s="17">
+        <v>100</v>
+      </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
@@ -28494,6 +28562,7 @@
       <c r="V110" s="12"/>
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -28708,7 +28777,7 @@
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:96" x14ac:dyDescent="0.2">
@@ -28718,7 +28787,7 @@
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:96" x14ac:dyDescent="0.2">
@@ -28753,6 +28822,7 @@
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -28826,6 +28896,9 @@
       </c>
       <c r="X123" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y123" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="124" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28904,7 +28977,9 @@
       <c r="X125" s="17">
         <v>48.348561990816677</v>
       </c>
-      <c r="Y125" s="9"/>
+      <c r="Y125" s="17">
+        <v>49.052699606969902</v>
+      </c>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
@@ -29050,7 +29125,9 @@
       <c r="X126" s="17">
         <v>51.651438009183316</v>
       </c>
-      <c r="Y126" s="9"/>
+      <c r="Y126" s="17">
+        <v>50.947300393030105</v>
+      </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
@@ -29294,7 +29371,9 @@
       <c r="X128" s="17">
         <v>100</v>
       </c>
-      <c r="Y128" s="9"/>
+      <c r="Y128" s="17">
+        <v>100</v>
+      </c>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
@@ -29392,6 +29471,7 @@
       <c r="V129" s="12"/>
       <c r="W129" s="12"/>
       <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -29600,9 +29680,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="23" man="1"/>
-    <brk id="76" max="23" man="1"/>
-    <brk id="94" max="23" man="1"/>
+    <brk id="38" max="24" man="1"/>
+    <brk id="76" max="24" man="1"/>
+    <brk id="94" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12EB191-01FE-44FD-B512-646416357F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC27B1D-154A-41DF-9E70-B975C1ADF627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -610,13 +610,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23571,49 +23571,49 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
     <col min="2" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -23642,7 +23642,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -23719,10 +23719,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23793,10 +23793,10 @@
         <v>532674.00487024733</v>
       </c>
       <c r="X12" s="8">
-        <v>620478.83180324745</v>
+        <v>618006.12831894832</v>
       </c>
       <c r="Y12" s="8">
-        <v>692553.04278208083</v>
+        <v>696085.52229589585</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23870,7 +23870,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23944,7 +23944,7 @@
         <v>628855.31113133102</v>
       </c>
       <c r="Y13" s="8">
-        <v>674047.95786410163</v>
+        <v>674068.52285326738</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -24018,7 +24018,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -24116,7 +24116,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -24187,10 +24187,10 @@
         <v>1139221.0893330369</v>
       </c>
       <c r="X15" s="11">
-        <v>1249334.1429345785</v>
+        <v>1246861.4394502793</v>
       </c>
       <c r="Y15" s="11">
-        <v>1366601.0006461823</v>
+        <v>1370154.0451491633</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24264,7 +24264,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -24291,12 +24291,12 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -24394,7 +24394,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -24492,37 +24492,37 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -24551,7 +24551,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -24628,10 +24628,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -24702,10 +24702,10 @@
         <v>488998.43734936201</v>
       </c>
       <c r="X31" s="8">
-        <v>536773.2479823007</v>
+        <v>534724.56121382804</v>
       </c>
       <c r="Y31" s="8">
-        <v>563930.09504232439</v>
+        <v>566795.17480042926</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -24779,7 +24779,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -24927,7 +24927,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -25025,7 +25025,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -25096,10 +25096,10 @@
         <v>1054235.2281024854</v>
       </c>
       <c r="X34" s="11">
-        <v>1110215.5387460238</v>
+        <v>1108166.8519775511</v>
       </c>
       <c r="Y34" s="11">
-        <v>1149641.3032529519</v>
+        <v>1152506.3830110568</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25173,7 +25173,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -25200,12 +25200,12 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25303,7 +25303,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -25401,37 +25401,37 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="15" t="s">
         <v>5</v>
@@ -25460,7 +25460,7 @@
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -25535,10 +25535,10 @@
       </c>
       <c r="Y48" s="16"/>
     </row>
-    <row r="49" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -25606,10 +25606,10 @@
         <v>8.5833102438390938</v>
       </c>
       <c r="W50" s="17">
-        <v>16.483782976116572</v>
+        <v>16.01957720266202</v>
       </c>
       <c r="X50" s="17">
-        <v>11.615901668936871</v>
+        <v>12.634080860869929</v>
       </c>
       <c r="Y50" s="17"/>
       <c r="Z50" s="9"/>
@@ -25679,7 +25679,7 @@
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
     </row>
-    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>3.6779051849370319</v>
       </c>
       <c r="X51" s="17">
-        <v>7.1864936071649907</v>
+        <v>7.1897638330503071</v>
       </c>
       <c r="Y51" s="17"/>
       <c r="Z51" s="9"/>
@@ -25820,7 +25820,7 @@
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
     </row>
-    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -25913,7 +25913,7 @@
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>1</v>
       </c>
@@ -25981,10 +25981,10 @@
         <v>5.3262062599454367</v>
       </c>
       <c r="W53" s="17">
-        <v>9.6656438888440732</v>
+        <v>9.448591772494396</v>
       </c>
       <c r="X53" s="17">
-        <v>9.3863485901501349</v>
+        <v>9.8882363186435214</v>
       </c>
       <c r="Y53" s="17"/>
       <c r="Z53" s="9"/>
@@ -26054,7 +26054,7 @@
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
     </row>
-    <row r="54" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -26081,12 +26081,12 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -26179,7 +26179,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -26272,37 +26272,37 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="15" t="s">
         <v>5</v>
@@ -26331,7 +26331,7 @@
       <c r="X66" s="15"/>
       <c r="Y66" s="15"/>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -26406,10 +26406,10 @@
       </c>
       <c r="Y67" s="6"/>
     </row>
-    <row r="68" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -26477,10 +26477,10 @@
         <v>3.4911864074456531</v>
       </c>
       <c r="W69" s="17">
-        <v>9.7699311457730289</v>
+        <v>9.3509754575754016</v>
       </c>
       <c r="X69" s="17">
-        <v>5.0592772948548941</v>
+        <v>5.9975950073811362</v>
       </c>
       <c r="Y69" s="17"/>
       <c r="Z69" s="9"/>
@@ -26550,7 +26550,7 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -26691,7 +26691,7 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -26784,7 +26784,7 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
@@ -26852,10 +26852,10 @@
         <v>2.2264156427042252</v>
       </c>
       <c r="W72" s="17">
-        <v>5.3100398422747901</v>
+        <v>5.1157106533175778</v>
       </c>
       <c r="X72" s="17">
-        <v>3.5511811113235723</v>
+        <v>4.0011602002334428</v>
       </c>
       <c r="Y72" s="17"/>
       <c r="Z72" s="9"/>
@@ -26925,7 +26925,7 @@
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -26952,12 +26952,12 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -27050,7 +27050,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -27148,32 +27148,32 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>5</v>
@@ -27202,7 +27202,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -27279,10 +27279,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -27353,10 +27353,10 @@
         <v>108.93163744195805</v>
       </c>
       <c r="X87" s="17">
-        <v>115.5942167638926</v>
+        <v>115.57466650046347</v>
       </c>
       <c r="Y87" s="17">
-        <v>122.80831416349626</v>
+        <v>122.8107706705496</v>
       </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -27430,7 +27430,7 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -27504,7 +27504,7 @@
         <v>109.66322527307982</v>
       </c>
       <c r="Y88" s="17">
-        <v>115.08196333195441</v>
+        <v>115.08547444611401</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -27578,7 +27578,7 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -27676,7 +27676,7 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
@@ -27747,10 +27747,10 @@
         <v>108.06137557967183</v>
       </c>
       <c r="X90" s="17">
-        <v>112.53077437068551</v>
+        <v>112.5156773301082</v>
       </c>
       <c r="Y90" s="17">
-        <v>118.87194699593127</v>
+        <v>118.88472509535927</v>
       </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -27824,7 +27824,7 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -27851,42 +27851,42 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
         <v>5</v>
@@ -27915,7 +27915,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -27992,10 +27992,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -28066,10 +28066,10 @@
         <v>46.757737357381977</v>
       </c>
       <c r="X106" s="17">
-        <v>49.6647622505374</v>
+        <v>49.564940318582394</v>
       </c>
       <c r="Y106" s="17">
-        <v>50.677047832879872</v>
+        <v>50.803449784371921</v>
       </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -28143,7 +28143,7 @@
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
     </row>
-    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -28214,10 +28214,10 @@
         <v>53.24226264261803</v>
       </c>
       <c r="X107" s="17">
-        <v>50.3352377494626</v>
+        <v>50.435059681417606</v>
       </c>
       <c r="Y107" s="17">
-        <v>49.322952167120135</v>
+        <v>49.196550215628065</v>
       </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -28291,7 +28291,7 @@
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
     </row>
-    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -28389,7 +28389,7 @@
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>1</v>
       </c>
@@ -28537,7 +28537,7 @@
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
     </row>
-    <row r="110" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -28564,12 +28564,12 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -28667,7 +28667,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -28765,37 +28765,37 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>5</v>
@@ -28824,7 +28824,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -28901,10 +28901,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -28975,10 +28975,10 @@
         <v>46.384186784339271</v>
       </c>
       <c r="X125" s="17">
-        <v>48.348561990816677</v>
+        <v>48.253073105335972</v>
       </c>
       <c r="Y125" s="17">
-        <v>49.052699606969902</v>
+        <v>49.179352336393229</v>
       </c>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
@@ -29052,7 +29052,7 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -29123,10 +29123,10 @@
         <v>53.615813215660722</v>
       </c>
       <c r="X126" s="17">
-        <v>51.651438009183316</v>
+        <v>51.746926894664028</v>
       </c>
       <c r="Y126" s="17">
-        <v>50.947300393030105</v>
+        <v>50.820647663606763</v>
       </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -29200,7 +29200,7 @@
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
     </row>
-    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -29298,7 +29298,7 @@
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>1</v>
       </c>
@@ -29446,7 +29446,7 @@
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
     </row>
-    <row r="129" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -29473,12 +29473,12 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -29576,7 +29576,7 @@
       <c r="CQ131" s="18"/>
       <c r="CR131" s="18"/>
     </row>
-    <row r="132" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>

--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC27B1D-154A-41DF-9E70-B975C1ADF627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF27466-51CE-4E4A-87C3-C5F547CD3117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$Y$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$Z$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,13 +610,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -698,8 +701,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -739,10 +744,12 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{F4D6B100-9A32-48F5-B321-1966DADD60C2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{505C7E35-1149-47C6-9AD1-7BD7DD6149A5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23576,44 +23583,44 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="26" width="11" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -23641,8 +23648,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -23718,11 +23726,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -23798,7 +23809,9 @@
       <c r="Y12" s="8">
         <v>696085.52229589585</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>778244.21896794438</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -23870,7 +23883,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -23946,7 +23959,9 @@
       <c r="Y13" s="8">
         <v>674068.52285326738</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>707792.78759194154</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -24018,7 +24033,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -24116,7 +24131,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -24192,7 +24207,9 @@
       <c r="Y15" s="11">
         <v>1370154.0451491633</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="11">
+        <v>1486037.006559886</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -24264,7 +24281,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -24290,13 +24307,14 @@
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -24394,7 +24412,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -24492,37 +24510,37 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -24550,8 +24568,9 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -24627,11 +24646,14 @@
       <c r="Y29" s="14">
         <v>2023</v>
       </c>
+      <c r="Z29" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -24707,7 +24729,9 @@
       <c r="Y31" s="8">
         <v>566795.17480042926</v>
       </c>
-      <c r="Z31" s="9"/>
+      <c r="Z31" s="8">
+        <v>611953.03197785828</v>
+      </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -24779,7 +24803,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -24855,7 +24879,9 @@
       <c r="Y32" s="8">
         <v>585711.20821062755</v>
       </c>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="8">
+        <v>598578.00560714118</v>
+      </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -24927,7 +24953,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -25025,7 +25051,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -25101,7 +25127,9 @@
       <c r="Y34" s="11">
         <v>1152506.3830110568</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="11">
+        <v>1210531.0375849996</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -25173,7 +25201,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -25199,13 +25227,14 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25303,7 +25332,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -25401,37 +25430,37 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="15" t="s">
         <v>5</v>
@@ -25459,8 +25488,9 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -25533,12 +25563,15 @@
       <c r="X48" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Y48" s="16"/>
+      <c r="Y48" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="16"/>
     </row>
-    <row r="49" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -25611,8 +25644,10 @@
       <c r="X50" s="17">
         <v>12.634080860869929</v>
       </c>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="9"/>
+      <c r="Y50" s="17">
+        <v>11.80296013068407</v>
+      </c>
+      <c r="Z50" s="17"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
@@ -25679,7 +25714,7 @@
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -25752,8 +25787,10 @@
       <c r="X51" s="17">
         <v>7.1897638330503071</v>
       </c>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="9"/>
+      <c r="Y51" s="17">
+        <v>5.0030914655267793</v>
+      </c>
+      <c r="Z51" s="17"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
@@ -25820,7 +25857,7 @@
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -25913,7 +25950,7 @@
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>1</v>
       </c>
@@ -25986,8 +26023,10 @@
       <c r="X53" s="17">
         <v>9.8882363186435214</v>
       </c>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="9"/>
+      <c r="Y53" s="17">
+        <v>8.4576593282331913</v>
+      </c>
+      <c r="Z53" s="17"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
@@ -26054,7 +26093,7 @@
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
     </row>
-    <row r="54" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -26080,13 +26119,14 @@
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -26179,7 +26219,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -26272,37 +26312,37 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="15" t="s">
         <v>5</v>
@@ -26330,8 +26370,9 @@
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
       <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -26404,12 +26445,15 @@
       <c r="X67" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Y67" s="6"/>
+      <c r="Y67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -26482,8 +26526,10 @@
       <c r="X69" s="17">
         <v>5.9975950073811362</v>
       </c>
-      <c r="Y69" s="17"/>
-      <c r="Z69" s="9"/>
+      <c r="Y69" s="17">
+        <v>7.9672268193407376</v>
+      </c>
+      <c r="Z69" s="17"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -26550,7 +26596,7 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -26623,8 +26669,10 @@
       <c r="X70" s="17">
         <v>2.1395208627819358</v>
       </c>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="9"/>
+      <c r="Y70" s="17">
+        <v>2.1967818297044914</v>
+      </c>
+      <c r="Z70" s="17"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
@@ -26691,7 +26739,7 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -26784,7 +26832,7 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
@@ -26857,8 +26905,10 @@
       <c r="X72" s="17">
         <v>4.0011602002334428</v>
       </c>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="9"/>
+      <c r="Y72" s="17">
+        <v>5.0346493025354562</v>
+      </c>
+      <c r="Z72" s="17"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
@@ -26925,7 +26975,7 @@
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -26951,13 +27001,14 @@
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -27050,7 +27101,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -27148,32 +27199,32 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
         <v>5</v>
@@ -27201,8 +27252,9 @@
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -27278,11 +27330,14 @@
       <c r="Y85" s="14">
         <v>2023</v>
       </c>
+      <c r="Z85" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="86" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -27358,7 +27413,9 @@
       <c r="Y87" s="17">
         <v>122.8107706705496</v>
       </c>
-      <c r="Z87" s="9"/>
+      <c r="Z87" s="17">
+        <v>127.17384804069454</v>
+      </c>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
@@ -27430,7 +27487,7 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -27506,7 +27563,9 @@
       <c r="Y88" s="17">
         <v>115.08547444611401</v>
       </c>
-      <c r="Z88" s="9"/>
+      <c r="Z88" s="17">
+        <v>118.24570581640788</v>
+      </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -27578,7 +27637,7 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -27676,7 +27735,7 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
@@ -27752,7 +27811,9 @@
       <c r="Y90" s="17">
         <v>118.88472509535927</v>
       </c>
-      <c r="Z90" s="9"/>
+      <c r="Z90" s="17">
+        <v>122.75909996694665</v>
+      </c>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
@@ -27824,7 +27885,7 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -27850,43 +27911,44 @@
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
         <v>5</v>
@@ -27914,8 +27976,9 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -27991,11 +28054,14 @@
       <c r="Y104" s="14">
         <v>2023</v>
       </c>
+      <c r="Z104" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -28071,7 +28137,9 @@
       <c r="Y106" s="17">
         <v>50.803449784371921</v>
       </c>
-      <c r="Z106" s="9"/>
+      <c r="Z106" s="17">
+        <v>52.370446733998065</v>
+      </c>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
@@ -28143,7 +28211,7 @@
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -28219,7 +28287,9 @@
       <c r="Y107" s="17">
         <v>49.196550215628065</v>
       </c>
-      <c r="Z107" s="9"/>
+      <c r="Z107" s="17">
+        <v>47.629553266001935</v>
+      </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
@@ -28291,7 +28361,7 @@
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -28389,7 +28459,7 @@
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>1</v>
       </c>
@@ -28465,7 +28535,9 @@
       <c r="Y109" s="17">
         <v>100</v>
       </c>
-      <c r="Z109" s="9"/>
+      <c r="Z109" s="17">
+        <v>100</v>
+      </c>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
@@ -28537,7 +28609,7 @@
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
     </row>
-    <row r="110" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -28563,13 +28635,14 @@
       <c r="W110" s="12"/>
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -28667,7 +28740,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -28765,37 +28838,37 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
         <v>5</v>
@@ -28823,8 +28896,9 @@
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -28900,11 +28974,14 @@
       <c r="Y123" s="14">
         <v>2023</v>
       </c>
+      <c r="Z123" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -28980,7 +29057,9 @@
       <c r="Y125" s="17">
         <v>49.179352336393229</v>
       </c>
-      <c r="Z125" s="9"/>
+      <c r="Z125" s="17">
+        <v>50.552444586526256</v>
+      </c>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
@@ -29052,7 +29131,7 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -29128,7 +29207,9 @@
       <c r="Y126" s="17">
         <v>50.820647663606763</v>
       </c>
-      <c r="Z126" s="9"/>
+      <c r="Z126" s="17">
+        <v>49.447555413473729</v>
+      </c>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
@@ -29200,7 +29281,7 @@
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -29298,7 +29379,7 @@
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>1</v>
       </c>
@@ -29374,7 +29455,9 @@
       <c r="Y128" s="17">
         <v>100</v>
       </c>
-      <c r="Z128" s="9"/>
+      <c r="Z128" s="17">
+        <v>100</v>
+      </c>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
@@ -29446,7 +29529,7 @@
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
     </row>
-    <row r="129" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -29472,13 +29555,14 @@
       <c r="W129" s="12"/>
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
+      <c r="Z129" s="12"/>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -29576,7 +29660,7 @@
       <c r="CQ131" s="18"/>
       <c r="CR131" s="18"/>
     </row>
-    <row r="132" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -29680,9 +29764,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="24" man="1"/>
-    <brk id="76" max="24" man="1"/>
-    <brk id="94" max="24" man="1"/>
+    <brk id="38" max="25" man="1"/>
+    <brk id="76" max="25" man="1"/>
+    <brk id="94" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF27466-51CE-4E4A-87C3-C5F547CD3117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F39DD-D87C-4797-A013-409BD1709834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="4620" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23578,9 +23578,9 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23807,10 +23807,10 @@
         <v>618006.12831894832</v>
       </c>
       <c r="Y12" s="8">
-        <v>696085.52229589585</v>
+        <v>695394.96861848608</v>
       </c>
       <c r="Z12" s="8">
-        <v>778244.21896794438</v>
+        <v>778048.08686080156</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23957,10 +23957,10 @@
         <v>628855.31113133102</v>
       </c>
       <c r="Y13" s="8">
-        <v>674068.52285326738</v>
+        <v>674020.74370543764</v>
       </c>
       <c r="Z13" s="8">
-        <v>707792.78759194154</v>
+        <v>707829.13825305761</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24205,10 +24205,10 @@
         <v>1246861.4394502793</v>
       </c>
       <c r="Y15" s="11">
-        <v>1370154.0451491633</v>
+        <v>1369415.7123239236</v>
       </c>
       <c r="Z15" s="11">
-        <v>1486037.006559886</v>
+        <v>1485877.2251138592</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24727,10 +24727,10 @@
         <v>534724.56121382804</v>
       </c>
       <c r="Y31" s="8">
-        <v>566795.17480042926</v>
+        <v>566243.75217096694</v>
       </c>
       <c r="Z31" s="8">
-        <v>611953.03197785828</v>
+        <v>611843.23812447756</v>
       </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -24877,10 +24877,10 @@
         <v>573442.29076372308</v>
       </c>
       <c r="Y32" s="8">
-        <v>585711.20821062755</v>
+        <v>585670.10475526319</v>
       </c>
       <c r="Z32" s="8">
-        <v>598578.00560714118</v>
+        <v>598608.37324987049</v>
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -25125,10 +25125,10 @@
         <v>1108166.8519775511</v>
       </c>
       <c r="Y34" s="11">
-        <v>1152506.3830110568</v>
+        <v>1151913.8569262302</v>
       </c>
       <c r="Z34" s="11">
-        <v>1210531.0375849996</v>
+        <v>1210451.6113743479</v>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25642,10 +25642,10 @@
         <v>16.01957720266202</v>
       </c>
       <c r="X50" s="17">
-        <v>12.634080860869929</v>
+        <v>12.522341891664553</v>
       </c>
       <c r="Y50" s="17">
-        <v>11.80296013068407</v>
+        <v>11.885780307919006</v>
       </c>
       <c r="Z50" s="17"/>
       <c r="AA50" s="9"/>
@@ -25785,10 +25785,10 @@
         <v>3.6779051849370319</v>
       </c>
       <c r="X51" s="17">
-        <v>7.1897638330503071</v>
+        <v>7.1821660363895887</v>
       </c>
       <c r="Y51" s="17">
-        <v>5.0030914655267793</v>
+        <v>5.0159279018265721</v>
       </c>
       <c r="Z51" s="17"/>
       <c r="AA51" s="9"/>
@@ -26021,10 +26021,10 @@
         <v>9.448591772494396</v>
       </c>
       <c r="X53" s="17">
-        <v>9.8882363186435214</v>
+        <v>9.8290210119639738</v>
       </c>
       <c r="Y53" s="17">
-        <v>8.4576593282331913</v>
+        <v>8.5044673974346381</v>
       </c>
       <c r="Z53" s="17"/>
       <c r="AA53" s="9"/>
@@ -26524,10 +26524,10 @@
         <v>9.3509754575754016</v>
       </c>
       <c r="X69" s="17">
-        <v>5.9975950073811362</v>
+        <v>5.8944722654201911</v>
       </c>
       <c r="Y69" s="17">
-        <v>7.9672268193407376</v>
+        <v>8.0529782057078876</v>
       </c>
       <c r="Z69" s="17"/>
       <c r="AA69" s="9"/>
@@ -26667,10 +26667,10 @@
         <v>1.4516924844305805</v>
       </c>
       <c r="X70" s="17">
-        <v>2.1395208627819358</v>
+        <v>2.1323530176427852</v>
       </c>
       <c r="Y70" s="17">
-        <v>2.1967818297044914</v>
+        <v>2.2091393071896448</v>
       </c>
       <c r="Z70" s="17"/>
       <c r="AA70" s="9"/>
@@ -26903,10 +26903,10 @@
         <v>5.1157106533175778</v>
       </c>
       <c r="X72" s="17">
-        <v>4.0011602002334428</v>
+        <v>3.9476911685827361</v>
       </c>
       <c r="Y72" s="17">
-        <v>5.0346493025354562</v>
+        <v>5.0817822961449508</v>
       </c>
       <c r="Z72" s="17"/>
       <c r="AA72" s="9"/>
@@ -27411,10 +27411,10 @@
         <v>115.57466650046347</v>
       </c>
       <c r="Y87" s="17">
-        <v>122.8107706705496</v>
+        <v>122.80841350608391</v>
       </c>
       <c r="Z87" s="17">
-        <v>127.17384804069454</v>
+        <v>127.16461315251313</v>
       </c>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -27561,10 +27561,10 @@
         <v>109.66322527307982</v>
       </c>
       <c r="Y88" s="17">
-        <v>115.08547444611401</v>
+        <v>115.08539333539893</v>
       </c>
       <c r="Z88" s="17">
-        <v>118.24570581640788</v>
+        <v>118.24577969235928</v>
       </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -27809,10 +27809,10 @@
         <v>112.5156773301082</v>
       </c>
       <c r="Y90" s="17">
-        <v>118.88472509535927</v>
+        <v>118.88178131462676</v>
       </c>
       <c r="Z90" s="17">
-        <v>122.75909996694665</v>
+        <v>122.75395490008829</v>
       </c>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -28135,10 +28135,10 @@
         <v>49.564940318582394</v>
       </c>
       <c r="Y106" s="17">
-        <v>50.803449784371921</v>
+        <v>50.780414037924835</v>
       </c>
       <c r="Z106" s="17">
-        <v>52.370446733998065</v>
+        <v>52.362878554867251</v>
       </c>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -28285,10 +28285,10 @@
         <v>50.435059681417606</v>
       </c>
       <c r="Y107" s="17">
-        <v>49.196550215628065</v>
+        <v>49.219585962075172</v>
       </c>
       <c r="Z107" s="17">
-        <v>47.629553266001935</v>
+        <v>47.637121445132749</v>
       </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -29055,10 +29055,10 @@
         <v>48.253073105335972</v>
       </c>
       <c r="Y125" s="17">
-        <v>49.179352336393229</v>
+        <v>49.156779282257538</v>
       </c>
       <c r="Z125" s="17">
-        <v>50.552444586526256</v>
+        <v>50.546691199806837</v>
       </c>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
@@ -29205,10 +29205,10 @@
         <v>51.746926894664028</v>
       </c>
       <c r="Y126" s="17">
-        <v>50.820647663606763</v>
+        <v>50.84322071774244</v>
       </c>
       <c r="Z126" s="17">
-        <v>49.447555413473729</v>
+        <v>49.453308800193177</v>
       </c>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>

--- a/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-18REOD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F39DD-D87C-4797-A013-409BD1709834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DA6CB2-7245-419A-9C52-FA3EF4228912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4620" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REOD" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$Z$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REOD!$A$1:$AA$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23578,16 +23581,16 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="26" width="11" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="11" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23602,7 +23605,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23612,7 +23615,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23649,6 +23652,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23728,6 +23732,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23812,7 +23819,9 @@
       <c r="Z12" s="8">
         <v>778048.08686080156</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>843888.4885807134</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -23962,7 +23971,9 @@
       <c r="Z13" s="8">
         <v>707829.13825305761</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>738251.48106701847</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -24210,7 +24221,9 @@
       <c r="Z15" s="11">
         <v>1485877.2251138592</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11">
+        <v>1582139.9696477319</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -24308,6 +24321,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -24522,7 +24536,7 @@
     </row>
     <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
@@ -24532,7 +24546,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24569,6 +24583,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -24648,6 +24663,9 @@
       </c>
       <c r="Z29" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24732,7 +24750,9 @@
       <c r="Z31" s="8">
         <v>611843.23812447756</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="8">
+        <v>654018.07580010185</v>
+      </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
@@ -24882,7 +24902,9 @@
       <c r="Z32" s="8">
         <v>598608.37324987049</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="8">
+        <v>611157.22653977864</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -25130,7 +25152,9 @@
       <c r="Z34" s="11">
         <v>1210451.6113743479</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="11">
+        <v>1265175.3023398805</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -25228,6 +25252,7 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
     </row>
     <row r="36" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -25442,7 +25467,7 @@
     </row>
     <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.2">
@@ -25452,7 +25477,7 @@
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
@@ -25489,6 +25514,7 @@
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -25566,7 +25592,10 @@
       <c r="Y48" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Z48" s="16"/>
+      <c r="Z48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA48" s="16"/>
     </row>
     <row r="49" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -25647,8 +25676,10 @@
       <c r="Y50" s="17">
         <v>11.885780307919006</v>
       </c>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="9"/>
+      <c r="Z50" s="17">
+        <v>8.4622535331406965</v>
+      </c>
+      <c r="AA50" s="17"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
@@ -25790,8 +25821,10 @@
       <c r="Y51" s="17">
         <v>5.0159279018265721</v>
       </c>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="9"/>
+      <c r="Z51" s="17">
+        <v>4.2979783071722721</v>
+      </c>
+      <c r="AA51" s="17"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
@@ -26026,8 +26059,10 @@
       <c r="Y53" s="17">
         <v>8.5044673974346381</v>
       </c>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="9"/>
+      <c r="Z53" s="17">
+        <v>6.4785126864365594</v>
+      </c>
+      <c r="AA53" s="17"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
@@ -26120,6 +26155,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
     </row>
     <row r="55" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -26324,7 +26360,7 @@
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.2">
@@ -26334,7 +26370,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.2">
@@ -26371,6 +26407,7 @@
       <c r="X66" s="15"/>
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
     </row>
     <row r="67" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -26448,7 +26485,10 @@
       <c r="Y67" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Z67" s="6"/>
+      <c r="Z67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA67" s="6"/>
     </row>
     <row r="68" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -26529,8 +26569,10 @@
       <c r="Y69" s="17">
         <v>8.0529782057078876</v>
       </c>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="9"/>
+      <c r="Z69" s="17">
+        <v>6.8930789861967696</v>
+      </c>
+      <c r="AA69" s="17"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
@@ -26672,8 +26714,10 @@
       <c r="Y70" s="17">
         <v>2.2091393071896448</v>
       </c>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="9"/>
+      <c r="Z70" s="17">
+        <v>2.0963377477965821</v>
+      </c>
+      <c r="AA70" s="17"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
@@ -26908,8 +26952,10 @@
       <c r="Y72" s="17">
         <v>5.0817822961449508</v>
       </c>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="9"/>
+      <c r="Z72" s="17">
+        <v>4.520931729224543</v>
+      </c>
+      <c r="AA72" s="17"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
@@ -27002,6 +27048,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
       <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
     </row>
     <row r="74" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -27206,7 +27253,7 @@
     </row>
     <row r="78" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:96" x14ac:dyDescent="0.2">
@@ -27216,7 +27263,7 @@
     </row>
     <row r="81" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
@@ -27253,6 +27300,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -27332,6 +27380,9 @@
       </c>
       <c r="Z85" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="86" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27416,7 +27467,9 @@
       <c r="Z87" s="17">
         <v>127.16461315251313</v>
       </c>
-      <c r="AA87" s="9"/>
+      <c r="AA87" s="17">
+        <v>129.03137081468751</v>
+      </c>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
@@ -27566,7 +27619,9 @@
       <c r="Z88" s="17">
         <v>118.24577969235928</v>
       </c>
-      <c r="AA88" s="9"/>
+      <c r="AA88" s="17">
+        <v>120.79567237498215</v>
+      </c>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -27814,7 +27869,9 @@
       <c r="Z90" s="17">
         <v>122.75395490008829</v>
       </c>
-      <c r="AA90" s="9"/>
+      <c r="AA90" s="17">
+        <v>125.05302361827965</v>
+      </c>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
@@ -27912,6 +27969,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
     </row>
     <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -27930,7 +27988,7 @@
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.2">
@@ -27940,7 +27998,7 @@
     </row>
     <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.2">
@@ -27977,6 +28035,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -28056,6 +28115,9 @@
       </c>
       <c r="Z104" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA104" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="105" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28140,7 +28202,9 @@
       <c r="Z106" s="17">
         <v>52.362878554867251</v>
       </c>
-      <c r="AA106" s="9"/>
+      <c r="AA106" s="17">
+        <v>53.338421680137927</v>
+      </c>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
       <c r="AD106" s="9"/>
@@ -28290,7 +28354,9 @@
       <c r="Z107" s="17">
         <v>47.637121445132749</v>
       </c>
-      <c r="AA107" s="9"/>
+      <c r="AA107" s="17">
+        <v>46.661578319862073</v>
+      </c>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
@@ -28538,7 +28604,9 @@
       <c r="Z109" s="17">
         <v>100</v>
       </c>
-      <c r="AA109" s="9"/>
+      <c r="AA109" s="17">
+        <v>100</v>
+      </c>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
@@ -28636,6 +28704,7 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -28850,7 +28919,7 @@
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:96" x14ac:dyDescent="0.2">
@@ -28860,7 +28929,7 @@
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:96" x14ac:dyDescent="0.2">
@@ -28897,6 +28966,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -28976,6 +29046,9 @@
       </c>
       <c r="Z123" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA123" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="124" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29060,7 +29133,9 @@
       <c r="Z125" s="17">
         <v>50.546691199806837</v>
       </c>
-      <c r="AA125" s="9"/>
+      <c r="AA125" s="17">
+        <v>51.693869979166294</v>
+      </c>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
       <c r="AD125" s="9"/>
@@ -29210,7 +29285,9 @@
       <c r="Z126" s="17">
         <v>49.453308800193177</v>
       </c>
-      <c r="AA126" s="9"/>
+      <c r="AA126" s="17">
+        <v>48.306130020833713</v>
+      </c>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
       <c r="AD126" s="9"/>
@@ -29458,7 +29535,9 @@
       <c r="Z128" s="17">
         <v>100</v>
       </c>
-      <c r="AA128" s="9"/>
+      <c r="AA128" s="17">
+        <v>100</v>
+      </c>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
       <c r="AD128" s="9"/>
@@ -29556,6 +29635,7 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
       <c r="Z129" s="12"/>
+      <c r="AA129" s="12"/>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -29764,9 +29844,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="25" man="1"/>
-    <brk id="76" max="25" man="1"/>
-    <brk id="94" max="25" man="1"/>
+    <brk id="38" max="26" man="1"/>
+    <brk id="76" max="26" man="1"/>
+    <brk id="94" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>